--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\Desktop\共有产权房\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2B82C3AA-2307-4D70-9EDA-7E4BF89432E1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{494F4792-BCD8-443E-A972-9F33A3CABEC2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="GetProjectByID" sheetId="4" r:id="rId5"/>
     <sheet name="GetProjects" sheetId="5" r:id="rId6"/>
     <sheet name="CheckBackEndAccount" sheetId="7" r:id="rId7"/>
+    <sheet name="ImportHouseInfo" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="125">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,6 +391,116 @@
   </si>
   <si>
     <t>200CEB26807D6BF99FD6F4F0D1CA54D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImportHouseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/ImportHouseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseList</t>
+  </si>
+  <si>
+    <t>List&lt;HouseEntity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SerialNumber</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌平区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号地块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测套内面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImportHouseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入房源信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EstimateBuiltUpArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EstimateLivingArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaUnitPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,21 +617,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -530,6 +632,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -543,14 +666,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -623,16 +752,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5780494</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>56498</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8344</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>151748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -655,7 +784,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2257425"/>
+          <a:off x="10382250" y="0"/>
           <a:ext cx="9447619" cy="5219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -672,16 +801,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>208523</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>94683</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>684773</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>132783</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -704,7 +833,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="2076450"/>
+          <a:off x="6705600" y="123825"/>
           <a:ext cx="8219048" cy="4533333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -721,16 +850,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>646749</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>142148</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>446724</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>94523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -753,7 +882,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="3009900"/>
+          <a:off x="6800850" y="66675"/>
           <a:ext cx="7609524" cy="5819048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -770,16 +899,65 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>246568</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>151654</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>46627</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5E6DFB-64C0-4638-9483-CA0021D99C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="76200"/>
+          <a:ext cx="7980952" cy="5495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>570418</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180229</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -802,7 +980,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66675" y="3228975"/>
+          <a:off x="7248525" y="0"/>
           <a:ext cx="8657143" cy="5971429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -815,20 +993,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>170432</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142294</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>456182</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47044</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -851,8 +1029,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="2009775"/>
+          <a:off x="7877175" y="104775"/>
           <a:ext cx="8142857" cy="4647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>227283</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F89CA3-A001-4711-8057-EC1630ECFF3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105650" y="47625"/>
+          <a:ext cx="10533333" cy="6038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1164,7 +1391,7 @@
   <dimension ref="A3:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1174,167 +1401,175 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>999</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>101</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>102</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1356,6 +1591,7 @@
     <hyperlink ref="A8" location="GetProjectByID!A1" display="GetProjectByID" xr:uid="{E2073BD3-C119-4564-B59F-F780021171D7}"/>
     <hyperlink ref="A9" location="GetProjects!A1" display="GetProjects" xr:uid="{018EA42E-307B-481C-9E2A-DE3E5C031CE0}"/>
     <hyperlink ref="A10" location="CheckBackEndAccount!A1" display="CheckBackEndAccount" xr:uid="{5F266735-8DA0-424D-9C3F-5732A5F02357}"/>
+    <hyperlink ref="A11" location="ImportHouseInfo!A1" display="ImportHouseInfo" xr:uid="{05393539-B346-4D05-A5B2-5DDEB6A9A74B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1367,158 +1603,158 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="90.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="86" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>3600</v>
       </c>
     </row>
@@ -1544,7 +1780,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="E13" sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1556,163 +1792,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1749,225 +1985,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1983,7 +2219,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1995,216 +2231,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{049C18F6-2B14-4119-8D1B-CAC55D0BF5B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2225,240 +2462,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2486,126 +2723,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2622,4 +2859,344 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69218C-5215-4760-84FD-FA47BEBF9E7D}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="19">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="19">
+        <v>240000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{DCC3582F-D446-40F9-B4ED-7CF596DD526B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{494F4792-BCD8-443E-A972-9F33A3CABEC2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B357132F-016A-4B2D-96D2-836724BADA11}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="7" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="132">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,33 @@
   </si>
   <si>
     <t>TotalPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseEstate</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保利花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,6 +669,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -665,21 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1047,22 +1074,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>227283</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>113545</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>103644</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>151626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F89CA3-A001-4711-8057-EC1630ECFF3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D641B28-941A-4FD8-8647-2DD6CCDF6027}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,8 +1105,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7105650" y="47625"/>
-          <a:ext cx="10533333" cy="6038095"/>
+          <a:off x="7096125" y="114300"/>
+          <a:ext cx="9047619" cy="6190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1390,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D5EC-E375-4492-919D-0F10795E6CD4}">
   <dimension ref="A3:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1401,10 +1428,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1413,17 +1440,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -1432,17 +1459,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -1451,17 +1478,17 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -1470,15 +1497,15 @@
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1508,16 +1535,16 @@
       <c r="A11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1536,10 +1563,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -1617,43 +1644,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -1703,13 +1730,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -1795,43 +1822,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -1911,13 +1938,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -1988,43 +2015,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2074,13 +2101,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -2113,13 +2140,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -2234,43 +2261,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2305,13 +2332,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -2344,13 +2371,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2465,43 +2492,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2566,13 +2593,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -2605,13 +2632,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2726,43 +2753,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2812,13 +2839,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -2863,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69218C-5215-4760-84FD-FA47BEBF9E7D}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2874,50 +2901,50 @@
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -2932,7 +2959,7 @@
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2947,249 +2974,267 @@
       <c r="D6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E10" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="19"/>
-    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="18">
-        <v>1</v>
-      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>106</v>
+        <v>53</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="18">
+        <v>39</v>
+      </c>
+      <c r="E16" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="18">
-        <v>101</v>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="18" t="s">
-        <v>108</v>
+      <c r="D18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="10">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="18" t="s">
-        <v>109</v>
+      <c r="D19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>105</v>
+        <v>120</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>114</v>
+      <c r="D20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="19">
-        <v>30000</v>
+        <v>111</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="11">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E24" s="11">
         <v>240000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B357132F-016A-4B2D-96D2-836724BADA11}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{221A1B37-B221-46F1-BD70-6A2862124E1A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="7" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="5" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="GetProjects" sheetId="5" r:id="rId6"/>
     <sheet name="CheckBackEndAccount" sheetId="7" r:id="rId7"/>
     <sheet name="ImportHouseInfo" sheetId="8" r:id="rId8"/>
+    <sheet name="GetAllHouseEstateInfo" sheetId="9" r:id="rId9"/>
+    <sheet name="GetHouseEstates" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="149">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,6 +530,69 @@
   </si>
   <si>
     <t>居室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取楼盘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseEstateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;HouseEstateEntity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseEstateID</t>
+  </si>
+  <si>
+    <t>ProjectNumber</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>HouseEstateName</t>
+  </si>
+  <si>
+    <t>HouseEstateEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAllHouseEstateInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetAllHouseEstateInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetHouseEstates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索楼盘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetHouseEstates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordCount</t>
+  </si>
+  <si>
+    <t>记录总条数(分页获取时返回)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +748,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -764,6 +835,55 @@
         <a:xfrm>
           <a:off x="5314950" y="1228725"/>
           <a:ext cx="12047619" cy="2371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561030</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>18292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDD0877-680E-4079-9CCB-0187C360FDC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="104775"/>
+          <a:ext cx="7561905" cy="6066667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -878,22 +998,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>446724</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>94523</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>446968</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>132598</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8B558D-753E-431C-8F5A-64E24B1825C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7080E564-6CC5-411A-9BE3-5E57FF5A6669}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -909,8 +1029,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6800850" y="66675"/>
-          <a:ext cx="7609524" cy="5819048"/>
+          <a:off x="6696075" y="85725"/>
+          <a:ext cx="5657143" cy="6019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -975,23 +1095,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>570418</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180229</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542064</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>84980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2EF4B3A-C5E4-43BC-9F34-DE7081F428E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA571847-4332-4205-8659-C69E19D992DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,8 +1127,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7248525" y="0"/>
-          <a:ext cx="8657143" cy="5971429"/>
+          <a:off x="6934200" y="95250"/>
+          <a:ext cx="6885714" cy="5961905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1107,6 +1227,55 @@
         <a:xfrm>
           <a:off x="7096125" y="114300"/>
           <a:ext cx="9047619" cy="6190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>580186</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46083000-5C6D-4052-B915-DBD1611502AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="171450"/>
+          <a:ext cx="6714286" cy="6142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1418,7 +1587,7 @@
   <dimension ref="A3:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1428,10 +1597,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1440,17 +1609,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -1459,17 +1628,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -1478,17 +1647,17 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -1497,15 +1666,15 @@
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1541,10 +1710,10 @@
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1562,11 +1731,19 @@
         <v>84</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="16"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -1625,6 +1802,252 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8105BE3-6FC7-4033-9177-78B1233A0592}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{237CF6B6-C64B-4E78-9297-4F6F3CB7F19E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE3007E-8313-4761-BE0A-4669B47934BC}">
   <dimension ref="A1:E11"/>
@@ -1644,43 +2067,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -1730,13 +2153,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -1822,43 +2245,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -1938,13 +2361,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -2000,7 +2423,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2015,43 +2438,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2101,13 +2524,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -2140,13 +2563,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -2261,43 +2684,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2332,13 +2755,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -2371,13 +2794,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2476,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE30CFD-1E1C-4897-96EA-7AE7C09D265A}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B6:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2492,43 +2915,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2593,13 +3016,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -2632,13 +3055,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2753,43 +3176,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2839,13 +3262,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -2892,7 +3315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69218C-5215-4760-84FD-FA47BEBF9E7D}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2908,43 +3331,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -3006,13 +3429,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -3039,13 +3462,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3244,4 +3667,236 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C075CAA7-554E-41D2-9325-00D525DFB039}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{EC673B49-EB47-4881-847C-35A3F69DFA51}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{221A1B37-B221-46F1-BD70-6A2862124E1A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4A8FE42-E3A4-4BA1-A13C-0EB5F33BEB3E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="5" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="7" activeTab="12" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="ImportHouseInfo" sheetId="8" r:id="rId8"/>
     <sheet name="GetAllHouseEstateInfo" sheetId="9" r:id="rId9"/>
     <sheet name="GetHouseEstates" sheetId="10" r:id="rId10"/>
+    <sheet name="GetAllHouseInfo" sheetId="11" r:id="rId11"/>
+    <sheet name="GetHouses" sheetId="12" r:id="rId12"/>
+    <sheet name="GetHouseSubscriber" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="210">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +596,233 @@
   </si>
   <si>
     <t>记录总条数(分页获取时返回)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAllHouseInfo</t>
+  </si>
+  <si>
+    <t>GetAllHouseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetAllHouseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseEstateID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubscriberID</t>
+  </si>
+  <si>
+    <t>SubscriberName</t>
+  </si>
+  <si>
+    <t>认购人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>GetAllHouseEstateInfo</t>
+  </si>
+  <si>
+    <t>GetHouseEstates</t>
+  </si>
+  <si>
+    <t>分页获取所有楼盘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索楼盘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按楼盘分页获取所有房源信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetHouses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetHouses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchStr</t>
+  </si>
+  <si>
+    <t>搜索关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetHouses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按分组、地块、楼号搜索房源信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetHouseSubscriber</t>
+  </si>
+  <si>
+    <t>GetHouseSubscriber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetHouseSubscriber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取房源认购人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subscriber</t>
+  </si>
+  <si>
+    <t>SubscriberEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>IdentityNumber</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>ResidenceArea</t>
+  </si>
+  <si>
+    <t>WorkArea</t>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户籍所在区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作所在区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110001XXXXXXXXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15051439296</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市东城区中南海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已婚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东城区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购人对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取房源认购人信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +830,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,8 +855,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +874,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,15 +945,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +1000,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -780,8 +1043,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{25499EF4-4CD6-44D7-A731-17199429F68B}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -809,8 +1073,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>255669</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171154</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9229</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -884,6 +1148,153 @@
         <a:xfrm>
           <a:off x="6267450" y="104775"/>
           <a:ext cx="7561905" cy="6066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665652</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>122787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7046D8-F91E-4B91-B5D3-850D0677AC4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="161925"/>
+          <a:ext cx="8780952" cy="8304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>513283</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>75193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6B013A-169D-4D56-8F88-27AFC34BA9AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="0"/>
+          <a:ext cx="8533333" cy="8057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>513642</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D673970-919D-43B6-9ABD-39DC9FC7E734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7029450" y="266700"/>
+          <a:ext cx="5666667" cy="6161905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1584,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D5EC-E375-4492-919D-0F10795E6CD4}">
-  <dimension ref="A3:M28"/>
+  <dimension ref="A3:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1597,10 +2008,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="22"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1609,17 +2020,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -1628,17 +2039,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -1647,17 +2058,17 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -1666,15 +2077,15 @@
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1708,72 +2119,113 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="16"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="B28" s="22"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>0</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>999</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>101</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>102</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1782,8 +2234,8 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E7:M7"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E5:M5"/>
   </mergeCells>
@@ -1796,6 +2248,11 @@
     <hyperlink ref="A9" location="GetProjects!A1" display="GetProjects" xr:uid="{018EA42E-307B-481C-9E2A-DE3E5C031CE0}"/>
     <hyperlink ref="A10" location="CheckBackEndAccount!A1" display="CheckBackEndAccount" xr:uid="{5F266735-8DA0-424D-9C3F-5732A5F02357}"/>
     <hyperlink ref="A11" location="ImportHouseInfo!A1" display="ImportHouseInfo" xr:uid="{05393539-B346-4D05-A5B2-5DDEB6A9A74B}"/>
+    <hyperlink ref="A12" location="GetAllHouseEstateInfo!A1" display="GetAllHouseEstateInfo" xr:uid="{EEEE72D6-DD2E-483A-8D58-65954A7266E3}"/>
+    <hyperlink ref="A13" location="GetHouseEstates!A1" display="GetHouseEstates" xr:uid="{01A640A3-9645-4543-B235-06B3E3B17088}"/>
+    <hyperlink ref="A14" location="GetAllHouseInfo!A1" display="GetAllHouseInfo" xr:uid="{2012421C-7197-432E-BFFF-BC3EA15E5CCA}"/>
+    <hyperlink ref="A15" location="GetHouses!A1" display="GetHouses" xr:uid="{6A4D8A88-8447-4DB5-8AF9-951F8CF48F3F}"/>
+    <hyperlink ref="A16" location="GetHouseSubscriber!A1" display="GetHouseSubscriber" xr:uid="{5262C897-261E-469E-AC6E-E3339B05F83E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1807,7 +2264,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E16" sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1821,43 +2278,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -1922,13 +2379,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -1961,13 +2418,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2031,12 +2488,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2045,6 +2502,1095 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0410AB-F2B2-4FC1-ACC0-074E62FD3BD6}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="A1:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="11">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="11">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{5BDBC607-0D9B-481D-9D8F-A782FCA52EBD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE232DD-C2DD-4576-BF05-4B1B60317F2E}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="A1:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="11">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="11">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{0FFD66A5-6513-42C0-B800-D18A12AE3891}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5850D968-0427-4961-B831-04D8A8B011A1}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{EC9F1314-A140-4F15-A62F-3559B252F419}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2067,43 +3613,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -2153,13 +3699,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2245,43 +3791,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2361,13 +3907,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -2438,43 +3984,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2524,13 +4070,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -2563,13 +4109,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -2684,43 +4230,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2755,13 +4301,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -2794,13 +4340,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2899,7 +4445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE30CFD-1E1C-4897-96EA-7AE7C09D265A}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -2915,43 +4461,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -3016,13 +4562,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -3055,13 +4601,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3161,7 +4707,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3176,43 +4722,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -3262,13 +4808,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -3316,7 +4862,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E24" sqref="A13:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3331,43 +4877,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -3429,13 +4975,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -3462,13 +5008,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="A12" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3479,7 +5025,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -3494,7 +5040,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>106</v>
@@ -3509,7 +5055,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>107</v>
@@ -3524,7 +5070,7 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -3539,7 +5085,7 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -3689,43 +5235,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -3775,13 +5321,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -3814,13 +5360,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3884,12 +5430,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4A8FE42-E3A4-4BA1-A13C-0EB5F33BEB3E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{30FF5F85-0E66-4B31-A025-DCF0A55371B5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="7" activeTab="12" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -19,13 +19,17 @@
     <sheet name="GetAllProjects" sheetId="3" r:id="rId4"/>
     <sheet name="GetProjectByID" sheetId="4" r:id="rId5"/>
     <sheet name="GetProjects" sheetId="5" r:id="rId6"/>
-    <sheet name="CheckBackEndAccount" sheetId="7" r:id="rId7"/>
-    <sheet name="ImportHouseInfo" sheetId="8" r:id="rId8"/>
-    <sheet name="GetAllHouseEstateInfo" sheetId="9" r:id="rId9"/>
-    <sheet name="GetHouseEstates" sheetId="10" r:id="rId10"/>
-    <sheet name="GetAllHouseInfo" sheetId="11" r:id="rId11"/>
-    <sheet name="GetHouses" sheetId="12" r:id="rId12"/>
-    <sheet name="GetHouseSubscriber" sheetId="13" r:id="rId13"/>
+    <sheet name="GetProjectGroup" sheetId="14" r:id="rId7"/>
+    <sheet name="CheckBackEndAccount" sheetId="7" r:id="rId8"/>
+    <sheet name="CheckFrontEndAccount" sheetId="16" r:id="rId9"/>
+    <sheet name="ImportHouseInfo" sheetId="8" r:id="rId10"/>
+    <sheet name="GetAllHouseEstateInfo" sheetId="9" r:id="rId11"/>
+    <sheet name="GetHouseEstates" sheetId="10" r:id="rId12"/>
+    <sheet name="GetAllHouseInfo" sheetId="11" r:id="rId13"/>
+    <sheet name="GetHouses" sheetId="12" r:id="rId14"/>
+    <sheet name="GetHouseSubscriber" sheetId="13" r:id="rId15"/>
+    <sheet name="ImportSubscriber" sheetId="17" r:id="rId16"/>
+    <sheet name="GetSubscribers" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="262">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -823,6 +827,195 @@
   </si>
   <si>
     <t>获取房源认购人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>List&lt;ProjectGroupEntity&gt;</t>
+  </si>
+  <si>
+    <t>ProjectGroupList</t>
+  </si>
+  <si>
+    <t>项目分组列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectGroupID</t>
+  </si>
+  <si>
+    <t>ProjectGroupName</t>
+  </si>
+  <si>
+    <t>项目分组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目分组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetProjectGroup</t>
+  </si>
+  <si>
+    <t>GetProjectGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetProjectGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按项目ID查询项目分组</t>
+  </si>
+  <si>
+    <t>按项目ID查询项目分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSubscribers</t>
+  </si>
+  <si>
+    <t>GetSubscribers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetSubscribers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据项目获取认购人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;SubscriberEntity&gt;</t>
+  </si>
+  <si>
+    <t>SubscriberList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购人列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据项目ID获取认购人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckFrontEndAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/CheckFrontEndAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10ADC3949BA59ABBE56E057F20F883E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectGroup</t>
+  </si>
+  <si>
+    <t>ShakingNumberList</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;ShakingNumberResultEntity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShakingNumberResultEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShakingNumberSequance</t>
+  </si>
+  <si>
+    <t>ShakingNumber</t>
+  </si>
+  <si>
+    <t>SubscriberFamilyMemberEntity</t>
+  </si>
+  <si>
+    <t>List&lt;SubscriberFamilyMemberEntity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubscriberFamilyMemberEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubscriberIdentityNumber</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>认购人身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与认购人关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夫妻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇号序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇号编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购人实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购人家庭成员列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImportSubscriber</t>
+  </si>
+  <si>
+    <t>导入认购人和摇号信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -954,7 +1147,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,6 +1211,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1074,7 +1279,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>255669</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9229</xdr:rowOff>
+      <xdr:rowOff>18754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1111,6 +1316,104 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>103644</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>151626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D641B28-941A-4FD8-8647-2DD6CCDF6027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7096125" y="114300"/>
+          <a:ext cx="9047619" cy="6190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>580186</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46083000-5C6D-4052-B915-DBD1611502AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="171450"/>
+          <a:ext cx="6714286" cy="6142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1159,7 +1462,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1208,7 +1511,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1257,7 +1560,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1295,6 +1598,55 @@
         <a:xfrm>
           <a:off x="7029450" y="266700"/>
           <a:ext cx="5666667" cy="6161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142094</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>103834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38434E27-B719-413F-915E-EC86F594B00F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="0"/>
+          <a:ext cx="6247619" cy="7523809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1556,6 +1908,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>8545</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8DDC0B-8544-4574-9905-70BE56B7D8F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="66675"/>
+          <a:ext cx="7838095" cy="6476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -1600,27 +2001,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>103644</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>151626</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408827</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180389</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D641B28-941A-4FD8-8647-2DD6CCDF6027}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A9126E-4524-4F9B-9780-5CBF0FD15741}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,57 +2037,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7096125" y="114300"/>
-          <a:ext cx="9047619" cy="6190476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>580186</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161157</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46083000-5C6D-4052-B915-DBD1611502AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="171450"/>
-          <a:ext cx="6714286" cy="6142857"/>
+          <a:off x="7143750" y="19050"/>
+          <a:ext cx="5980952" cy="4685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1995,10 +2347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D5EC-E375-4492-919D-0F10795E6CD4}">
-  <dimension ref="A3:M32"/>
+  <dimension ref="A3:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2008,10 +2360,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -2020,17 +2372,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -2039,17 +2391,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -2058,17 +2410,17 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -2077,15 +2429,15 @@
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -2105,127 +2457,150 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>219</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="22"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="22"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>999</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
+        <v>999</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>101</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>102</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2234,8 +2609,8 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E7:M7"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E5:M5"/>
   </mergeCells>
@@ -2246,13 +2621,16 @@
     <hyperlink ref="A7" location="GetAllProjects!A1" display="GetAllProjects" xr:uid="{CE313535-83EE-4EBE-941B-6A1B43337998}"/>
     <hyperlink ref="A8" location="GetProjectByID!A1" display="GetProjectByID" xr:uid="{E2073BD3-C119-4564-B59F-F780021171D7}"/>
     <hyperlink ref="A9" location="GetProjects!A1" display="GetProjects" xr:uid="{018EA42E-307B-481C-9E2A-DE3E5C031CE0}"/>
-    <hyperlink ref="A10" location="CheckBackEndAccount!A1" display="CheckBackEndAccount" xr:uid="{5F266735-8DA0-424D-9C3F-5732A5F02357}"/>
-    <hyperlink ref="A11" location="ImportHouseInfo!A1" display="ImportHouseInfo" xr:uid="{05393539-B346-4D05-A5B2-5DDEB6A9A74B}"/>
-    <hyperlink ref="A12" location="GetAllHouseEstateInfo!A1" display="GetAllHouseEstateInfo" xr:uid="{EEEE72D6-DD2E-483A-8D58-65954A7266E3}"/>
-    <hyperlink ref="A13" location="GetHouseEstates!A1" display="GetHouseEstates" xr:uid="{01A640A3-9645-4543-B235-06B3E3B17088}"/>
-    <hyperlink ref="A14" location="GetAllHouseInfo!A1" display="GetAllHouseInfo" xr:uid="{2012421C-7197-432E-BFFF-BC3EA15E5CCA}"/>
-    <hyperlink ref="A15" location="GetHouses!A1" display="GetHouses" xr:uid="{6A4D8A88-8447-4DB5-8AF9-951F8CF48F3F}"/>
-    <hyperlink ref="A16" location="GetHouseSubscriber!A1" display="GetHouseSubscriber" xr:uid="{5262C897-261E-469E-AC6E-E3339B05F83E}"/>
+    <hyperlink ref="A11" location="CheckBackEndAccount!A1" display="CheckBackEndAccount" xr:uid="{5F266735-8DA0-424D-9C3F-5732A5F02357}"/>
+    <hyperlink ref="A12" location="ImportHouseInfo!A1" display="ImportHouseInfo" xr:uid="{05393539-B346-4D05-A5B2-5DDEB6A9A74B}"/>
+    <hyperlink ref="A13" location="GetAllHouseEstateInfo!A1" display="GetAllHouseEstateInfo" xr:uid="{EEEE72D6-DD2E-483A-8D58-65954A7266E3}"/>
+    <hyperlink ref="A14" location="GetHouseEstates!A1" display="GetHouseEstates" xr:uid="{01A640A3-9645-4543-B235-06B3E3B17088}"/>
+    <hyperlink ref="A15" location="GetAllHouseInfo!A1" display="GetAllHouseInfo" xr:uid="{2012421C-7197-432E-BFFF-BC3EA15E5CCA}"/>
+    <hyperlink ref="A16" location="GetHouses!A1" display="GetHouses" xr:uid="{6A4D8A88-8447-4DB5-8AF9-951F8CF48F3F}"/>
+    <hyperlink ref="A17" location="GetHouseSubscriber!A1" display="GetHouseSubscriber" xr:uid="{5262C897-261E-469E-AC6E-E3339B05F83E}"/>
+    <hyperlink ref="A10" location="GetProjectGroup!A1" display="GetProjectGroup" xr:uid="{E0E81568-74F6-4B9E-94BD-B651F33BA187}"/>
+    <hyperlink ref="A19" location="GetSubscribers!A1" display="GetSubscribers" xr:uid="{1B82022D-CC0F-49AA-83B8-631DF60FA471}"/>
+    <hyperlink ref="A18" location="ImportSubscriber!A1" display="ImportSubscriber" xr:uid="{9067E440-741C-4FDC-9C26-1CB8862EE845}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2260,6 +2638,596 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69218C-5215-4760-84FD-FA47BEBF9E7D}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="A13:E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="11">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="11">
+        <v>240000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{DCC3582F-D446-40F9-B4ED-7CF596DD526B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C075CAA7-554E-41D2-9325-00D525DFB039}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{EC673B49-EB47-4881-847C-35A3F69DFA51}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8105BE3-6FC7-4033-9177-78B1233A0592}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -2278,43 +3246,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -2379,13 +3347,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -2418,13 +3386,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2505,12 +3473,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0410AB-F2B2-4FC1-ACC0-074E62FD3BD6}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="A1:E26"/>
+      <selection activeCell="A7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2526,43 +3494,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -2627,13 +3595,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
@@ -2666,13 +3634,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2900,11 +3868,12 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{5BDBC607-0D9B-481D-9D8F-A782FCA52EBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE232DD-C2DD-4576-BF05-4B1B60317F2E}">
   <dimension ref="A1:E27"/>
   <sheetViews>
@@ -2924,43 +3893,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -3040,13 +4009,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -3079,13 +4048,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -3318,12 +4287,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5850D968-0427-4961-B831-04D8A8B011A1}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3338,43 +4307,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -3409,13 +4378,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -3448,13 +4417,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -3590,7 +4559,766 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{EC9F1314-A140-4F15-A62F-3559B252F419}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D4CFC-0494-47A0-B635-C2F8FB9A3CF9}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{89482811-F09F-4A1D-9528-D667594DF432}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51347561-1DB4-4A32-9DDA-6870238873B6}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{9423A1D7-B0D9-4748-AA17-5D4E1F428A71}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3613,43 +5341,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -3699,13 +5427,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -3791,43 +5519,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -3907,13 +5635,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3984,43 +5712,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -4070,13 +5798,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -4109,13 +5837,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -4230,43 +5958,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -4301,13 +6029,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -4340,13 +6068,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -4446,7 +6174,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E17" sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4461,43 +6189,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -4562,13 +6290,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -4601,13 +6329,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4703,11 +6431,197 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618D7D0-CD7D-49CE-827A-D1315FFF9DC1}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{1CEF5E35-7172-4992-969B-2467016873FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AE83B2-C86C-4CC9-A3A0-1E0DF25C1C59}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E10" sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4722,43 +6636,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -4808,13 +6722,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -4853,584 +6767,150 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{AD06B146-FD85-49A7-98B2-E1307EB57007}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69218C-5215-4760-84FD-FA47BEBF9E7D}">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="A13:E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="10">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="11">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="11">
-        <v>240000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A9:E9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{DCC3582F-D446-40F9-B4ED-7CF596DD526B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C075CAA7-554E-41D2-9325-00D525DFB039}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAAC7A2-EB54-41A8-A451-AFFBB9B4C6ED}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="14">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A11:E11"/>
+  <mergeCells count="5">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -5439,10 +6919,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{EC673B49-EB47-4881-847C-35A3F69DFA51}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{EDFCEF49-3717-4F03-BAB7-45366090326D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{30FF5F85-0E66-4B31-A025-DCF0A55371B5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57071225-2147-4C9A-A058-40762224AEDC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
@@ -29,7 +29,10 @@
     <sheet name="GetHouses" sheetId="12" r:id="rId14"/>
     <sheet name="GetHouseSubscriber" sheetId="13" r:id="rId15"/>
     <sheet name="ImportSubscriber" sheetId="17" r:id="rId16"/>
-    <sheet name="GetSubscribers" sheetId="15" r:id="rId17"/>
+    <sheet name="GetAllSubscribers" sheetId="15" r:id="rId17"/>
+    <sheet name="GetSubscribers" sheetId="20" r:id="rId18"/>
+    <sheet name="GetSubscriberSelectionHistory" sheetId="18" r:id="rId19"/>
+    <sheet name="GetSelectHouseInfo" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="297">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -905,10 +908,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据项目ID获取认购人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CheckFrontEndAccount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1016,6 +1015,143 @@
   </si>
   <si>
     <t>导入认购人和摇号信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSubscriberSelectionHistory</t>
+  </si>
+  <si>
+    <t>GetSubscriberSelectionHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetSubscriberSelectionHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取历史选房信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;SubscriberSelectionEntity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubscriberSelectionEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeStatus</t>
+  </si>
+  <si>
+    <t>AuthStatus</t>
+  </si>
+  <si>
+    <t>SelectionStatus</t>
+  </si>
+  <si>
+    <t>ConfirmStatus</t>
+  </si>
+  <si>
+    <t>ShakingResultID</t>
+  </si>
+  <si>
+    <t>通知状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇号结果ID(获取选房详情用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保利花园1期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-未通知;1-有效电话;2-未接通;3-号码有误;4-非本人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-未验证;1-已验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-未选房;1-已选房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-未确认;1-已确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSelectHouseInfo</t>
+  </si>
+  <si>
+    <t>GetSelectHouseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetSelectHouseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseAndEstateEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAllSubscribers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取认购人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAllSubscribers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetAllSubscribers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索认购人名称/身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按认购人姓名/身份证号搜索认购人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购人参与选房历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购人选房详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1147,7 +1283,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1210,6 +1346,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1613,23 +1755,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142094</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>103834</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>237381</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>151431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38434E27-B719-413F-915E-EC86F594B00F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A3D455-649B-45A2-B2A5-0151D3274C1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1645,8 +1787,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7419975" y="0"/>
-          <a:ext cx="6247619" cy="7523809"/>
+          <a:off x="6438900" y="0"/>
+          <a:ext cx="5952381" cy="7752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>475400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77446123-7988-4D40-9600-930921F68866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="0"/>
+          <a:ext cx="6800000" cy="6180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2347,23 +2538,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D5EC-E375-4492-919D-0F10795E6CD4}">
-  <dimension ref="A3:M34"/>
+  <dimension ref="A3:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="28"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -2372,17 +2563,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -2391,17 +2582,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -2410,17 +2601,17 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -2429,15 +2620,15 @@
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -2521,86 +2712,113 @@
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="B20" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="26"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B25" s="28"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="26"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>999</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>101</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B33" s="28"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>999</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>102</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2609,8 +2827,8 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E7:M7"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E5:M5"/>
   </mergeCells>
@@ -2629,8 +2847,11 @@
     <hyperlink ref="A16" location="GetHouses!A1" display="GetHouses" xr:uid="{6A4D8A88-8447-4DB5-8AF9-951F8CF48F3F}"/>
     <hyperlink ref="A17" location="GetHouseSubscriber!A1" display="GetHouseSubscriber" xr:uid="{5262C897-261E-469E-AC6E-E3339B05F83E}"/>
     <hyperlink ref="A10" location="GetProjectGroup!A1" display="GetProjectGroup" xr:uid="{E0E81568-74F6-4B9E-94BD-B651F33BA187}"/>
-    <hyperlink ref="A19" location="GetSubscribers!A1" display="GetSubscribers" xr:uid="{1B82022D-CC0F-49AA-83B8-631DF60FA471}"/>
+    <hyperlink ref="A19" location="GetAllSubscribers!A1" display="GetAllSubscribers" xr:uid="{1B82022D-CC0F-49AA-83B8-631DF60FA471}"/>
     <hyperlink ref="A18" location="ImportSubscriber!A1" display="ImportSubscriber" xr:uid="{9067E440-741C-4FDC-9C26-1CB8862EE845}"/>
+    <hyperlink ref="A20" location="GetSubscribers!A1" display="GetSubscribers" xr:uid="{1227913F-0AF0-4330-B412-FF4AEEBF672B}"/>
+    <hyperlink ref="A21" location="GetSubscriberSelectionHistory!A1" display="GetSubscriberSelectionHistory" xr:uid="{7813DD15-3886-4B11-ADD0-F589A75460AE}"/>
+    <hyperlink ref="A22" location="GetSelectHouseInfo!A1" display="GetSelectHouseInfo" xr:uid="{C062566C-AFF1-46BE-9BE6-10E4EB5D21B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2657,43 +2878,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -2755,13 +2976,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -2788,13 +3009,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3015,43 +3236,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -3101,13 +3322,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -3140,13 +3361,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3246,43 +3467,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -3347,13 +3568,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -3386,13 +3607,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3494,43 +3715,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -3595,13 +3816,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
@@ -3634,13 +3855,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3878,7 +4099,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="A1:E27"/>
+      <selection activeCell="A14" sqref="A14:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3893,43 +4114,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -4009,13 +4230,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -4048,13 +4269,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -4307,43 +4528,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -4378,13 +4599,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -4417,13 +4638,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -4584,43 +4805,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -4656,10 +4877,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -4671,10 +4892,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -4685,13 +4906,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -4718,42 +4939,42 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4765,31 +4986,31 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -4912,24 +5133,24 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
+      <c r="A26" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>202</v>
@@ -4967,32 +5188,32 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5017,10 +5238,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51347561-1DB4-4A32-9DDA-6870238873B6}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E20"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5035,43 +5256,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -5092,17 +5313,309 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="E6" s="24">
-        <v>3</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{9423A1D7-B0D9-4748-AA17-5D4E1F428A71}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9791F5-D126-40FE-B28B-0C0D17EAA1E6}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="26">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5116,7 +5629,7 @@
       <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="26">
         <v>10</v>
       </c>
     </row>
@@ -5131,33 +5644,33 @@
       <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5175,13 +5688,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5314,11 +5827,285 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{9423A1D7-B0D9-4748-AA17-5D4E1F428A71}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{9ADE22EC-466C-46E4-ACDD-A4F4F5579D6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72295025-172D-4CE3-ACC6-8085A41379B0}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A9:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{AAA42286-9900-4836-ACF9-F75208469D28}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5341,43 +6128,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -5427,13 +6214,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -5496,6 +6283,371 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64FAFE-6E43-4876-88EB-F8D4E0AE04D3}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="11">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="11">
+        <v>240000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{F64D0E3D-1194-4343-8898-FB109C7FA3B7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5519,43 +6671,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -5635,13 +6787,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -5712,43 +6864,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -5798,13 +6950,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -5837,13 +6989,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -5958,43 +7110,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -6029,13 +7181,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -6068,13 +7220,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -6189,43 +7341,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -6290,13 +7442,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -6329,13 +7481,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -6450,43 +7602,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -6521,13 +7673,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -6560,13 +7712,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -6636,43 +7788,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -6722,13 +7874,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -6791,43 +7943,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -6858,7 +8010,7 @@
         <v>92</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6873,17 +8025,17 @@
         <v>93</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57071225-2147-4C9A-A058-40762224AEDC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA9F1DB5-0EE0-4054-9479-040549C30AA6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
@@ -33,6 +33,10 @@
     <sheet name="GetSubscribers" sheetId="20" r:id="rId18"/>
     <sheet name="GetSubscriberSelectionHistory" sheetId="18" r:id="rId19"/>
     <sheet name="GetSelectHouseInfo" sheetId="19" r:id="rId20"/>
+    <sheet name="GetAllFrontEndAccount" sheetId="21" r:id="rId21"/>
+    <sheet name="GetFrontEndAccount" sheetId="24" r:id="rId22"/>
+    <sheet name="AddFrontEndAccount" sheetId="22" r:id="rId23"/>
+    <sheet name="EditFrontEndAccount" sheetId="23" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="334">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1152,6 +1156,148 @@
   </si>
   <si>
     <t>认购人选房详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFrontEndAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetFrontEndAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountList</t>
+  </si>
+  <si>
+    <t>List&lt;FrontEndAccountEntity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontEndAccountEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountID</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>前台账号ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保利花园一期项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(为0时获取所有)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取前台账号信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddFrontEndAccount</t>
+  </si>
+  <si>
+    <t>AddFrontEndAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/AddFrontEndAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5加密后的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditFrontEndAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/EditFrontEndAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeforePassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5加密后的原密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10ADC3949BA59ABBE56E057F20F883F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAllFrontEndAccount</t>
+  </si>
+  <si>
+    <t>GetAllFrontEndAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetAllFrontEndAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFrontEndAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditFrontEndAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有前台账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按账号名称搜索前台账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加前台账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu该前台账号密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,6 +1337,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1283,7 +1435,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,6 +1517,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1388,6 +1546,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1849,6 +2010,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265957</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96492D8B-0EC5-43FB-924E-D4811804938A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="0"/>
+          <a:ext cx="5942857" cy="6980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>341888</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>84889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2780D571-C32A-4596-BB77-7029187601FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="95250"/>
+          <a:ext cx="8095238" cy="6685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1887,6 +2146,55 @@
         <a:xfrm>
           <a:off x="10382250" y="0"/>
           <a:ext cx="9447619" cy="5219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>132437</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EAAF114-E7AD-4DD7-96B2-7A7A0CF7F9DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="142875"/>
+          <a:ext cx="7304762" cy="4704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2538,10 +2846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D5EC-E375-4492-919D-0F10795E6CD4}">
-  <dimension ref="A3:M37"/>
+  <dimension ref="A3:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2551,10 +2859,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -2563,17 +2871,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -2582,17 +2890,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -2601,17 +2909,17 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -2620,15 +2928,15 @@
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -2751,74 +3059,102 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A23" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="28"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B28" s="30"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="28"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>999</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>101</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B36" s="30"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>999</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>101</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>102</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2827,8 +3163,8 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E7:M7"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E5:M5"/>
   </mergeCells>
@@ -2852,6 +3188,10 @@
     <hyperlink ref="A20" location="GetSubscribers!A1" display="GetSubscribers" xr:uid="{1227913F-0AF0-4330-B412-FF4AEEBF672B}"/>
     <hyperlink ref="A21" location="GetSubscriberSelectionHistory!A1" display="GetSubscriberSelectionHistory" xr:uid="{7813DD15-3886-4B11-ADD0-F589A75460AE}"/>
     <hyperlink ref="A22" location="GetSelectHouseInfo!A1" display="GetSelectHouseInfo" xr:uid="{C062566C-AFF1-46BE-9BE6-10E4EB5D21B9}"/>
+    <hyperlink ref="A23" location="GetAllFrontEndAccount!A1" display="GetAllFrontEndAccount" xr:uid="{3537C68C-1C60-4E7B-A7EA-A7A4FE821604}"/>
+    <hyperlink ref="A24" location="GetFrontEndAccount!A1" display="GetFrontEndAccount" xr:uid="{4FF72E46-A8D4-44C2-937E-94C91206E21F}"/>
+    <hyperlink ref="A25" location="AddFrontEndAccount!A1" display="AddFrontEndAccount" xr:uid="{F7F48FA4-2B3E-4B46-993F-DBA971285E02}"/>
+    <hyperlink ref="A26" location="EditFrontEndAccount!A1" display="EditFrontEndAccount" xr:uid="{C8989562-0FE0-4666-8C0E-EDB73DC12EA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2878,43 +3218,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -2976,13 +3316,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -3009,13 +3349,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3236,43 +3576,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -3322,13 +3662,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -3361,13 +3701,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3467,43 +3807,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -3568,13 +3908,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -3607,13 +3947,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3715,43 +4055,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -3816,13 +4156,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
@@ -3855,13 +4195,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4114,43 +4454,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -4230,13 +4570,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -4269,13 +4609,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -4528,43 +4868,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -4599,13 +4939,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -4638,13 +4978,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -4805,43 +5145,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -4906,13 +5246,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -4939,13 +5279,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5004,13 +5344,13 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -5133,13 +5473,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -5256,43 +5596,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -5342,13 +5682,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
@@ -5381,13 +5721,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -5533,7 +5873,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5548,43 +5888,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -5649,13 +5989,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -5688,13 +6028,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5818,12 +6158,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5853,43 +6193,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -5924,13 +6264,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -5963,13 +6303,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -6093,12 +6433,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6128,43 +6468,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -6214,13 +6554,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -6291,7 +6631,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E24" sqref="A1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6306,43 +6646,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6392,13 +6732,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -6431,13 +6771,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -6646,6 +6986,866 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{F64D0E3D-1194-4343-8898-FB109C7FA3B7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E017E-F98C-4E8F-9530-36494CBF555D}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{13BC709F-ABD1-49D3-8360-6AA6EE2325CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E050302D-AAD3-4B2C-ABFF-B3FE63A3B8FC}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8A03FDA2-DFA0-4882-9D7A-0D1864F7A35E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BAF07A-C364-435A-8146-997555F6B955}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{950E8841-A39E-4BE3-B79F-20D17D633BB8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C4BDE7-165C-4050-A8A9-19E5DFF609B3}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{4201070F-EC26-4D4A-9266-13DF709A6AE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6671,43 +7871,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -6787,13 +7987,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -6864,43 +8064,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -6950,13 +8150,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -6989,13 +8189,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -7110,43 +8310,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -7181,13 +8381,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -7220,13 +8420,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -7341,43 +8541,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -7442,13 +8642,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -7481,13 +8681,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -7602,43 +8802,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -7673,13 +8873,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -7712,13 +8912,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -7788,43 +8988,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -7874,13 +9074,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -7943,43 +9143,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -8029,13 +9229,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA9F1DB5-0EE0-4054-9479-040549C30AA6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B4F463C-6CD9-481B-9625-FC2A6B250406}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="20" activeTab="24" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="GetFrontEndAccount" sheetId="24" r:id="rId22"/>
     <sheet name="AddFrontEndAccount" sheetId="22" r:id="rId23"/>
     <sheet name="EditFrontEndAccount" sheetId="23" r:id="rId24"/>
+    <sheet name="GetSelectTimePeriod" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="355">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1298,6 +1299,84 @@
   </si>
   <si>
     <t>iu该前台账号密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID(0时全部获取)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSelectTimePeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetSelectTimePeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectGroupID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectTimeList</t>
+  </si>
+  <si>
+    <t>List&lt;SelectTimePeriodEntity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectTimePeriodEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>StartNumber</t>
+  </si>
+  <si>
+    <t>按项目分组ID获取选房时间段信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房时间段列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间(yyyy-MM-dd HH:mm:ss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间(yyyy-MM-dd HH:mm:ss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06-01 10:00:00</t>
+  </si>
+  <si>
+    <t>2018-06-01 09:00:00</t>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束选房序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始选房序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1435,7 +1514,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1523,6 +1602,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1546,9 +1634,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2206,6 +2291,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>237390</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADEB9F4F-510A-49E6-A0CF-7C165E33C1BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277225" y="0"/>
+          <a:ext cx="5876190" cy="5771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2407,22 +2541,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>8545</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>27765</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>199261</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>160955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8DDC0B-8544-4574-9905-70BE56B7D8F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEAFC71-5C6D-4E0B-9254-6156CD92C859}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,8 +2572,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7239000" y="66675"/>
-          <a:ext cx="7838095" cy="6476190"/>
+          <a:off x="7572375" y="0"/>
+          <a:ext cx="6114286" cy="7761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2848,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D5EC-E375-4492-919D-0F10795E6CD4}">
   <dimension ref="A3:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2859,10 +2993,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="33"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -2871,17 +3005,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -2890,17 +3024,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -2909,17 +3043,17 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -2928,15 +3062,15 @@
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -3091,10 +3225,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="33"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -3121,10 +3255,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="30"/>
+      <c r="B36" s="33"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -3218,43 +3352,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -3316,13 +3450,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -3349,13 +3483,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3576,43 +3710,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -3662,13 +3796,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -3701,13 +3835,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3807,43 +3941,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -3908,13 +4042,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -3947,13 +4081,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4055,43 +4189,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -4156,13 +4290,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
@@ -4195,13 +4329,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4454,43 +4588,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -4570,13 +4704,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -4609,13 +4743,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -4868,43 +5002,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -4939,13 +5073,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -4978,13 +5112,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -5130,7 +5264,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5145,43 +5279,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -5246,13 +5380,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -5279,13 +5413,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5344,13 +5478,13 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -5473,13 +5607,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -5596,43 +5730,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -5682,13 +5816,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
@@ -5721,13 +5855,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -5888,43 +6022,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -5989,13 +6123,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -6028,13 +6162,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -6193,43 +6327,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6264,13 +6398,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -6303,13 +6437,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -6468,43 +6602,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -6554,13 +6688,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -6646,43 +6780,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6732,13 +6866,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -6771,13 +6905,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -7011,43 +7145,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7112,13 +7246,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -7151,13 +7285,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -7221,12 +7355,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7242,7 +7376,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E18" sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7257,43 +7391,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7373,13 +7507,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -7412,13 +7546,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -7482,12 +7616,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7518,43 +7652,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7614,18 +7748,18 @@
       <c r="D8" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="31" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -7673,7 +7807,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E12" sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7687,43 +7821,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7783,7 +7917,7 @@
       <c r="D8" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="31" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7798,18 +7932,18 @@
       <c r="D9" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="31" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -7848,6 +7982,222 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{4201070F-EC26-4D4A-9266-13DF709A6AE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3C67A-3135-47A7-89A6-1DAA21E2FB2E}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{5BEDEDBC-3371-4911-B996-4D0AD015A519}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7871,43 +8221,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -7987,13 +8337,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -8064,43 +8414,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -8150,13 +8500,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -8189,13 +8539,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -8310,43 +8660,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -8381,13 +8731,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -8420,13 +8770,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -8541,43 +8891,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -8642,13 +8992,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -8681,13 +9031,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -8784,17 +9134,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618D7D0-CD7D-49CE-827A-D1315FFF9DC1}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8802,43 +9152,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -8866,20 +9216,20 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="E6" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -8912,41 +9262,84 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>214</v>
+        <v>336</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" s="22">
+        <v>53</v>
+      </c>
+      <c r="E11" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E15" s="22" t="s">
         <v>218</v>
       </c>
     </row>
@@ -8964,7 +9357,8 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{1CEF5E35-7172-4992-969B-2467016873FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8988,43 +9382,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -9074,13 +9468,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -9143,43 +9537,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -9229,13 +9623,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B4F463C-6CD9-481B-9625-FC2A6B250406}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CC22100-6020-471F-858A-9CA52A2E50B6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="20" activeTab="24" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="357">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1298,10 +1298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iu该前台账号密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目ID(0时全部获取)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1315,6 +1311,9 @@
   </si>
   <si>
     <t>GetSelectTimePeriod</t>
+  </si>
+  <si>
+    <t>GetSelectTimePeriod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1347,6 +1346,9 @@
   </si>
   <si>
     <t>按项目分组ID获取选房时间段信息</t>
+  </si>
+  <si>
+    <t>按项目分组ID获取选房时间段信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1377,6 +1379,10 @@
   </si>
   <si>
     <t>开始选房序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改前台账号密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1514,7 +1520,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1634,6 +1640,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2980,10 +2992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D5EC-E375-4492-919D-0F10795E6CD4}">
-  <dimension ref="A3:M40"/>
+  <dimension ref="A3:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3221,74 +3233,86 @@
         <v>329</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="33"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B30" s="33"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="33" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="33"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>999</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="B38" s="33"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
+        <v>999</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>101</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>102</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3297,8 +3321,8 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E7:M7"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E5:M5"/>
   </mergeCells>
@@ -3326,6 +3350,7 @@
     <hyperlink ref="A24" location="GetFrontEndAccount!A1" display="GetFrontEndAccount" xr:uid="{4FF72E46-A8D4-44C2-937E-94C91206E21F}"/>
     <hyperlink ref="A25" location="AddFrontEndAccount!A1" display="AddFrontEndAccount" xr:uid="{F7F48FA4-2B3E-4B46-993F-DBA971285E02}"/>
     <hyperlink ref="A26" location="EditFrontEndAccount!A1" display="EditFrontEndAccount" xr:uid="{C8989562-0FE0-4666-8C0E-EDB73DC12EA6}"/>
+    <hyperlink ref="A27" location="GetSelectTimePeriod!A1" display="GetSelectTimePeriod" xr:uid="{C081A06A-CCFF-4CD9-A3E4-DD7D327725EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7989,8 +8014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3C67A-3135-47A7-89A6-1DAA21E2FB2E}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8017,7 +8042,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -8110,7 +8135,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -8132,10 +8157,10 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -8147,10 +8172,10 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -8162,7 +8187,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>257</v>
@@ -8177,10 +8202,10 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -9216,7 +9241,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E6" s="22">
         <v>1</v>
@@ -9272,7 +9297,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -9309,7 +9334,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E13" s="30"/>
     </row>

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CC22100-6020-471F-858A-9CA52A2E50B6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DFD96660-2BA4-4816-8E7B-7685EE092E45}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
@@ -38,6 +38,8 @@
     <sheet name="AddFrontEndAccount" sheetId="22" r:id="rId23"/>
     <sheet name="EditFrontEndAccount" sheetId="23" r:id="rId24"/>
     <sheet name="GetSelectTimePeriod" sheetId="25" r:id="rId25"/>
+    <sheet name="AddSelectTimePeriod" sheetId="26" r:id="rId26"/>
+    <sheet name="EditSelectTimePeriod" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="366">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1383,6 +1385,42 @@
   </si>
   <si>
     <t>修改前台账号密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddSelectTimePeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/AddSelectTimePeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按项目分组ID添加选房时间段信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSelectTimePeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/EditSelectTimePeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddSelectTimePeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSelectTimePeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按项目分组ID添加选房时间段信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按项目分组ID修改选房时间段信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1520,7 +1558,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1617,6 +1655,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1640,12 +1687,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2352,6 +2393,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485114</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFB4FE8-1AA9-4959-811B-92D8AF39DECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="66675"/>
+          <a:ext cx="5285714" cy="5676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>627880</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6FE43B-4E5D-4A88-BCAD-5A4F0A3A3A9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="219075"/>
+          <a:ext cx="6161905" cy="5704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2992,10 +3131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D5EC-E375-4492-919D-0F10795E6CD4}">
-  <dimension ref="A3:M42"/>
+  <dimension ref="A3:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3005,10 +3144,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -3017,17 +3156,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -3036,17 +3175,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -3055,17 +3194,17 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -3074,15 +3213,15 @@
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -3245,74 +3384,90 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
+      <c r="A28" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="33"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B32" s="36"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="33" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="33"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>999</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="B40" s="36"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
+        <v>999</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>101</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>102</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3321,8 +3476,8 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E7:M7"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A40:B40"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E5:M5"/>
   </mergeCells>
@@ -3351,6 +3506,8 @@
     <hyperlink ref="A25" location="AddFrontEndAccount!A1" display="AddFrontEndAccount" xr:uid="{F7F48FA4-2B3E-4B46-993F-DBA971285E02}"/>
     <hyperlink ref="A26" location="EditFrontEndAccount!A1" display="EditFrontEndAccount" xr:uid="{C8989562-0FE0-4666-8C0E-EDB73DC12EA6}"/>
     <hyperlink ref="A27" location="GetSelectTimePeriod!A1" display="GetSelectTimePeriod" xr:uid="{C081A06A-CCFF-4CD9-A3E4-DD7D327725EB}"/>
+    <hyperlink ref="A28" location="AddSelectTimePeriod!A1" display="AddSelectTimePeriod" xr:uid="{05575447-8BDB-41B0-8FFE-63AD0AD57486}"/>
+    <hyperlink ref="A29" location="EditSelectTimePeriod!A1" display="EditSelectTimePeriod" xr:uid="{5A96B844-9490-482B-9F5E-CDEB14B5CD31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3377,43 +3534,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -3475,13 +3632,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -3508,13 +3665,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3735,43 +3892,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -3821,13 +3978,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -3860,13 +4017,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3966,43 +4123,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -4067,13 +4224,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -4106,13 +4263,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4214,43 +4371,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -4315,13 +4472,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
@@ -4354,13 +4511,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4613,43 +4770,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -4729,13 +4886,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -4768,13 +4925,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -5027,43 +5184,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -5098,13 +5255,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -5137,13 +5294,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -5304,43 +5461,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -5405,13 +5562,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -5438,13 +5595,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5503,13 +5660,13 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -5632,13 +5789,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -5755,43 +5912,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -5841,13 +5998,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
@@ -5880,13 +6037,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -6047,43 +6204,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6148,13 +6305,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -6187,13 +6344,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -6352,43 +6509,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6423,13 +6580,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -6462,13 +6619,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -6627,43 +6784,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -6713,13 +6870,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -6805,43 +6962,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6891,13 +7048,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -6930,13 +7087,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -7170,43 +7327,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7271,13 +7428,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -7310,13 +7467,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -7416,43 +7573,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7532,13 +7689,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -7571,13 +7728,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -7677,43 +7834,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7778,13 +7935,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -7846,43 +8003,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7962,13 +8119,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -8014,9 +8171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3C67A-3135-47A7-89A6-1DAA21E2FB2E}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8030,43 +8185,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
@@ -8101,13 +8256,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
@@ -8140,13 +8295,13 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -8205,6 +8360,229 @@
         <v>354</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{5BEDEDBC-3371-4911-B996-4D0AD015A519}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A34891D-AFAC-478A-8095-9E4ED95D251C}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8214,12 +8592,235 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{5BEDEDBC-3371-4911-B996-4D0AD015A519}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{B3F34B04-07FF-49F8-A1D6-045E1CB88982}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053CEAF4-B7BF-4960-AD09-ADFDCADE132D}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{EF5E9798-D6F4-4A81-8D09-0D8780CFCD1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -8246,43 +8847,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -8362,13 +8963,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -8439,43 +9040,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -8525,13 +9126,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -8564,13 +9165,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -8685,43 +9286,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -8756,13 +9357,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -8795,13 +9396,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -8916,43 +9517,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -9017,13 +9618,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -9056,13 +9657,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -9177,43 +9778,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -9248,13 +9849,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -9287,13 +9888,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -9407,43 +10008,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -9493,13 +10094,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -9562,43 +10163,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -9648,13 +10249,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DFD96660-2BA4-4816-8E7B-7685EE092E45}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A6522DBA-3E07-4AE9-A61D-F71894FB5718}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
@@ -40,6 +40,7 @@
     <sheet name="GetSelectTimePeriod" sheetId="25" r:id="rId25"/>
     <sheet name="AddSelectTimePeriod" sheetId="26" r:id="rId26"/>
     <sheet name="EditSelectTimePeriod" sheetId="27" r:id="rId27"/>
+    <sheet name="GetProjectRoleBaseInfo" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="393">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1421,6 +1422,102 @@
   </si>
   <si>
     <t>按项目分组ID修改选房时间段信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetProjectRoleBaseInfo</t>
+  </si>
+  <si>
+    <t>GetProjectRoleBaseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按项目获取配置规则基础数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetProjectRoleBaseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ProjectGroupSingleEntity&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;RoomTypeEntity&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;HouseGroupEntity&gt;</t>
+  </si>
+  <si>
+    <t>RoomTypeList</t>
+  </si>
+  <si>
+    <t>FamilyNumber</t>
+  </si>
+  <si>
+    <t>HouseGroupList</t>
+  </si>
+  <si>
+    <t>家庭人数列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectGroupSingleEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomTypeEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomTypeID</t>
+  </si>
+  <si>
+    <t>RoomTypeName</t>
+  </si>
+  <si>
+    <t>户型ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一居室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseGroupEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseGroupID</t>
+  </si>
+  <si>
+    <t>HouseGroupName</t>
+  </si>
+  <si>
+    <t>房源分组列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源分组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源分组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按项目获取配置规则基础数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1558,7 +1655,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1663,6 +1760,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3131,10 +3231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D5EC-E375-4492-919D-0F10795E6CD4}">
-  <dimension ref="A3:M44"/>
+  <dimension ref="A3:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3144,10 +3244,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="37"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -3156,17 +3256,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -3175,17 +3275,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -3194,17 +3294,17 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -3213,15 +3313,15 @@
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -3400,74 +3500,82 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A30" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="36"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="B33" s="37"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="36"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="B41" s="37"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>101</v>
+        <v>999</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
+        <v>101</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>102</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3476,8 +3584,8 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E7:M7"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E5:M5"/>
   </mergeCells>
@@ -3508,6 +3616,7 @@
     <hyperlink ref="A27" location="GetSelectTimePeriod!A1" display="GetSelectTimePeriod" xr:uid="{C081A06A-CCFF-4CD9-A3E4-DD7D327725EB}"/>
     <hyperlink ref="A28" location="AddSelectTimePeriod!A1" display="AddSelectTimePeriod" xr:uid="{05575447-8BDB-41B0-8FFE-63AD0AD57486}"/>
     <hyperlink ref="A29" location="EditSelectTimePeriod!A1" display="EditSelectTimePeriod" xr:uid="{5A96B844-9490-482B-9F5E-CDEB14B5CD31}"/>
+    <hyperlink ref="A30" location="GetProjectRoleBaseInfo!A1" display="GetProjectRoleBaseInfo" xr:uid="{0D93DD7C-1A6E-463A-B84A-0FD9A8C00210}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3534,43 +3643,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -3632,13 +3741,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -3665,13 +3774,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3892,43 +4001,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -3978,13 +4087,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -4017,13 +4126,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -4123,43 +4232,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -4224,13 +4333,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -4263,13 +4372,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4371,43 +4480,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -4472,13 +4581,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
@@ -4511,13 +4620,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4770,43 +4879,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -4886,13 +4995,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -4925,13 +5034,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -5184,43 +5293,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -5255,13 +5364,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -5294,13 +5403,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -5445,9 +5554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D4CFC-0494-47A0-B635-C2F8FB9A3CF9}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5461,43 +5568,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -5562,13 +5669,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -5595,13 +5702,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5660,13 +5767,13 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -5789,13 +5896,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -5912,43 +6019,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -5998,13 +6105,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
@@ -6037,13 +6144,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -6204,43 +6311,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6305,13 +6412,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -6344,13 +6451,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -6509,43 +6616,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6580,13 +6687,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -6619,13 +6726,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -6784,43 +6891,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -6870,13 +6977,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -6962,43 +7069,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -7048,13 +7155,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -7087,13 +7194,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -7327,43 +7434,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7428,13 +7535,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -7467,13 +7574,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -7573,43 +7680,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7689,13 +7796,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -7728,13 +7835,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -7834,43 +7941,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7935,13 +8042,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -8003,43 +8110,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -8119,13 +8226,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -8185,43 +8292,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
@@ -8256,13 +8363,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
@@ -8295,13 +8402,13 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -8401,43 +8508,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -8485,13 +8592,13 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -8518,13 +8625,13 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -8588,12 +8695,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8609,7 +8716,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E15" sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8624,43 +8731,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -8708,13 +8815,13 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -8741,13 +8848,13 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -8811,12 +8918,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8824,6 +8931,311 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7873BC5-1DF2-4321-96AD-E5B466BE86EE}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{4AA748D1-BD4C-46AB-B062-B466C4BF4A8F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8847,43 +9259,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -8963,13 +9375,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -9040,43 +9452,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -9126,13 +9538,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -9165,13 +9577,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -9286,43 +9698,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -9357,13 +9769,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -9396,13 +9808,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -9517,43 +9929,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -9618,13 +10030,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -9657,13 +10069,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -9778,43 +10190,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -9849,13 +10261,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -9888,13 +10300,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -10008,43 +10420,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -10094,13 +10506,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -10163,43 +10575,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -10249,13 +10661,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A6522DBA-3E07-4AE9-A61D-F71894FB5718}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7C00C613-4D85-4FCE-92BF-93686DF86729}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="9" activeTab="15" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="395">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -955,14 +955,11 @@
     <t>ShakingNumber</t>
   </si>
   <si>
+    <t>List&lt;SubscriberFamilyMemberEntity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SubscriberFamilyMemberEntity</t>
-  </si>
-  <si>
-    <t>List&lt;SubscriberFamilyMemberEntity&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubscriberFamilyMemberEntity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1518,6 +1515,18 @@
   </si>
   <si>
     <t>按项目获取配置规则基础数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImportSubscriber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/ImportSubscriber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamilyMemberList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3233,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D5EC-E375-4492-919D-0F10795E6CD4}">
   <dimension ref="A3:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3405,18 +3414,18 @@
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3424,87 +3433,87 @@
         <v>224</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3627,9 +3636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69218C-5215-4760-84FD-FA47BEBF9E7D}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="A13:E24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5278,7 +5285,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="A1:E18"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5554,7 +5561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D4CFC-0494-47A0-B635-C2F8FB9A3CF9}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5569,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>225</v>
+        <v>392</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -5580,7 +5589,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -5591,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>226</v>
+        <v>393</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -5632,7 +5641,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="E6" s="24">
         <v>3</v>
@@ -5719,10 +5728,10 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5734,10 +5743,10 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5749,20 +5758,20 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -5897,7 +5906,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -5906,14 +5915,14 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>202</v>
@@ -5951,32 +5960,32 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -6020,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -6042,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -6375,7 +6384,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E6" s="26">
         <v>10</v>
@@ -6617,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -6628,7 +6637,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -6639,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -6714,10 +6723,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -6727,7 +6736,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -6746,7 +6755,7 @@
         <v>53</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6761,7 +6770,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6776,82 +6785,82 @@
         <v>38</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -7070,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -7081,7 +7090,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -7092,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -7182,20 +7191,20 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -7435,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -7446,7 +7455,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -7457,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -7501,7 +7510,7 @@
         <v>53</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -7562,20 +7571,20 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -7584,14 +7593,14 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -7606,10 +7615,10 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -7621,25 +7630,25 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7681,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -7692,7 +7701,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -7703,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -7747,7 +7756,7 @@
         <v>53</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -7762,7 +7771,7 @@
         <v>174</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -7823,20 +7832,20 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -7845,14 +7854,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -7867,10 +7876,10 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -7882,25 +7891,25 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7942,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -7953,7 +7962,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -7964,7 +7973,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -8013,29 +8022,29 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>234</v>
@@ -8111,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -8122,7 +8131,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -8133,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -8167,7 +8176,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -8182,44 +8191,44 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>322</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>234</v>
@@ -8293,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -8304,7 +8313,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -8315,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -8349,7 +8358,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -8390,20 +8399,20 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -8412,62 +8421,62 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -8509,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -8520,7 +8529,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -8531,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -8565,7 +8574,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -8580,14 +8589,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -8626,7 +8635,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -8635,62 +8644,62 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -8732,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -8743,7 +8752,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -8754,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -8788,7 +8797,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -8803,14 +8812,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -8849,7 +8858,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -8858,62 +8867,62 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -8955,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -8966,7 +8975,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -8977,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -9055,7 +9064,7 @@
         <v>212</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -9065,46 +9074,46 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -9123,7 +9132,7 @@
         <v>216</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -9143,7 +9152,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
@@ -9152,37 +9161,37 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -9191,29 +9200,29 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>106</v>
@@ -10254,7 +10263,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E6" s="22">
         <v>1</v>
@@ -10310,7 +10319,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -10347,7 +10356,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E13" s="30"/>
     </row>

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7C00C613-4D85-4FCE-92BF-93686DF86729}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79EB3AF4-9F77-4FE6-94D3-0DD1AC8AAC58}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="9" activeTab="15" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="5" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="400">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1527,6 +1527,25 @@
   </si>
   <si>
     <t>FamilyMemberList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevelopCompany</t>
+  </si>
+  <si>
+    <t>开发企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京AXXXX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5561,7 +5580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D4CFC-0494-47A0-B635-C2F8FB9A3CF9}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -9250,10 +9269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A6B621-60EF-4EFF-A096-4C25DB4716D7}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="A1:E13"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9384,44 +9403,74 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9429,7 +9478,7 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9443,10 +9492,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3448F2-E006-4D3D-9AA2-4FF70651E0A5}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9667,6 +9716,36 @@
       </c>
       <c r="E16" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -9683,16 +9762,17 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{E31AF0C2-32E7-4DD5-9798-C550A7533F64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC355C8E-E5D5-4A4E-A137-7D9CF2A0E1C9}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9898,6 +9978,36 @@
       </c>
       <c r="E15" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -9914,16 +10024,17 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{049C18F6-2B14-4119-8D1B-CAC55D0BF5B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE30CFD-1E1C-4897-96EA-7AE7C09D265A}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="A1:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10159,6 +10270,36 @@
       </c>
       <c r="E17" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79EB3AF4-9F77-4FE6-94D3-0DD1AC8AAC58}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87B1D745-13C3-492B-9E7D-94ADE01AF3E4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="5" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="25" activeTab="30" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -41,6 +41,9 @@
     <sheet name="AddSelectTimePeriod" sheetId="26" r:id="rId26"/>
     <sheet name="EditSelectTimePeriod" sheetId="27" r:id="rId27"/>
     <sheet name="GetProjectRoleBaseInfo" sheetId="28" r:id="rId28"/>
+    <sheet name="AddSelectRole" sheetId="29" r:id="rId29"/>
+    <sheet name="EditSelectRole" sheetId="30" r:id="rId30"/>
+    <sheet name="GetShakingNumbers" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="437">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1546,6 +1549,144 @@
   </si>
   <si>
     <t>京AXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddSelectRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/AddSelectRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加项目选房规则、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectGroupAndRoomTypeRoleList</t>
+  </si>
+  <si>
+    <t>FamilyNumberAndRoomTypeRoleList</t>
+  </si>
+  <si>
+    <t>ProjectGroupAndHouseGroupRoleList</t>
+  </si>
+  <si>
+    <t>项目分组和户型关系规则</t>
+  </si>
+  <si>
+    <t>家庭人数和户型规则</t>
+  </si>
+  <si>
+    <t>项目分组和房源分组规则</t>
+  </si>
+  <si>
+    <t>List&lt;ProjectGroupAndRoomTypeRole&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectGroupAndRoomTypeRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;FamilyNumberAndRoomTypeRole&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamilyNumberAndRoomTypeRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ProjectGroupAndHouseGroupRole&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectGroupAndHouseGroupRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房型ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSelectRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改项目选房规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/EditSelectRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectHouseSequance</t>
+  </si>
+  <si>
+    <t>AddSelectRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSelectRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改选房规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetShakingNumbers</t>
+  </si>
+  <si>
+    <t>GetShakingNumbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetShakingNumbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShakingNumberResultList</t>
+  </si>
+  <si>
+    <t>摇号结果对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;GetShakingNumberResultEntity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetShakingNumberResultEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按项目分组ID获取摇号结果</t>
+  </si>
+  <si>
+    <t>按项目分组ID获取摇号结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建选房规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1613,7 +1754,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1673,6 +1814,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1683,7 +1835,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1792,6 +1944,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1815,6 +1973,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3259,10 +3420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D5EC-E375-4492-919D-0F10795E6CD4}">
-  <dimension ref="A3:M45"/>
+  <dimension ref="A3:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3272,10 +3433,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="39"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -3284,17 +3445,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -3303,17 +3464,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -3322,17 +3483,17 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -3341,15 +3502,15 @@
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -3536,74 +3697,98 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
+      <c r="A31" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="37"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B36" s="39"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="37"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>999</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>101</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B44" s="39"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>999</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>101</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>102</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3612,8 +3797,8 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E7:M7"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E5:M5"/>
   </mergeCells>
@@ -3645,9 +3830,12 @@
     <hyperlink ref="A28" location="AddSelectTimePeriod!A1" display="AddSelectTimePeriod" xr:uid="{05575447-8BDB-41B0-8FFE-63AD0AD57486}"/>
     <hyperlink ref="A29" location="EditSelectTimePeriod!A1" display="EditSelectTimePeriod" xr:uid="{5A96B844-9490-482B-9F5E-CDEB14B5CD31}"/>
     <hyperlink ref="A30" location="GetProjectRoleBaseInfo!A1" display="GetProjectRoleBaseInfo" xr:uid="{0D93DD7C-1A6E-463A-B84A-0FD9A8C00210}"/>
+    <hyperlink ref="A31" location="AddSelectRole!A1" display="AddSelectRole" xr:uid="{8B6BEA52-419F-4244-9055-411040390FAA}"/>
+    <hyperlink ref="A32" location="EditSelectRole!A1" display="EditSelectRole" xr:uid="{85C6B676-BA1B-423E-B123-947DA13664C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3669,43 +3857,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -3767,13 +3955,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -3800,13 +3988,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4027,43 +4215,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -4113,13 +4301,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -4152,13 +4340,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -4258,43 +4446,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -4359,13 +4547,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -4398,13 +4586,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4506,43 +4694,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -4607,13 +4795,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
@@ -4646,13 +4834,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4905,43 +5093,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -5021,13 +5209,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -5060,13 +5248,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -5319,43 +5507,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -5390,13 +5578,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -5429,13 +5617,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -5578,10 +5766,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D4CFC-0494-47A0-B635-C2F8FB9A3CF9}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A12" sqref="A12:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5596,43 +5784,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -5697,13 +5885,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -5730,13 +5918,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5755,262 +5943,277 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>241</v>
+        <v>423</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>253</v>
+        <v>422</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="10"/>
+        <v>253</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>159</v>
-      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>202</v>
-      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>251</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -6047,43 +6250,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -6133,13 +6336,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
@@ -6172,13 +6375,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -6339,43 +6542,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6440,13 +6643,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -6479,13 +6682,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -6644,43 +6847,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6715,13 +6918,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -6754,13 +6957,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -6919,43 +7122,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -7005,13 +7208,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -7097,43 +7300,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -7183,13 +7386,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -7222,13 +7425,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -7462,43 +7665,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7563,13 +7766,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -7602,13 +7805,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -7708,43 +7911,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7824,13 +8027,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -7863,13 +8066,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -7969,43 +8172,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -8070,13 +8273,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -8138,43 +8341,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -8254,13 +8457,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -8320,43 +8523,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
@@ -8391,13 +8594,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
@@ -8430,13 +8633,13 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -8536,43 +8739,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -8620,13 +8823,13 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -8653,13 +8856,13 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -8744,7 +8947,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:E15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8759,43 +8962,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -8843,13 +9046,13 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -8876,13 +9079,13 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -8967,7 +9170,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8982,43 +9185,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -9053,13 +9256,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
@@ -9131,13 +9334,13 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -9170,13 +9373,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="43" t="s">
         <v>378</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -9209,13 +9412,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -9261,6 +9464,305 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{4AA748D1-BD4C-46AB-B062-B466C4BF4A8F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7A4C03-E041-4887-A634-0C4E13041247}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{7A7D04EB-B50C-4F9B-AD4A-EE76E4BD2E24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9287,43 +9789,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -9433,13 +9935,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -9487,6 +9989,647 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6FE3F0-0CBA-4570-A5A5-EBF4F4A1C167}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{6133302A-2277-44C3-8184-045EBAD6FB0B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CB2732-F391-4B78-B4DC-9D0A6FED6A79}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A15:E15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{552D101C-3B11-4C59-BA84-DEAA017F22FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9510,43 +10653,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -9596,13 +10739,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -9635,13 +10778,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -9787,43 +10930,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -9858,13 +11001,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -9897,13 +11040,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -10033,7 +11176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE30CFD-1E1C-4897-96EA-7AE7C09D265A}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -10049,43 +11192,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -10150,13 +11293,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -10189,13 +11332,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -10340,43 +11483,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -10411,13 +11554,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -10450,13 +11593,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -10570,43 +11713,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -10656,13 +11799,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -10725,43 +11868,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -10811,13 +11954,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87B1D745-13C3-492B-9E7D-94ADE01AF3E4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F95C7DC-810C-4055-8467-F2EA5D43CCDC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="25" activeTab="30" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="6" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="443">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1687,6 +1687,30 @@
   </si>
   <si>
     <t>创建选房规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售罄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1835,7 +1859,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1949,6 +1973,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3423,7 +3450,7 @@
   <dimension ref="A3:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3433,10 +3460,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -3445,17 +3472,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -3464,17 +3491,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -3483,17 +3510,17 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -3502,15 +3529,15 @@
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -3716,7 +3743,7 @@
       <c r="A33" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="47" t="s">
         <v>435</v>
       </c>
     </row>
@@ -3725,10 +3752,10 @@
       <c r="B34" s="34"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="40"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -3755,10 +3782,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="39"/>
+      <c r="B44" s="40"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -3857,43 +3884,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -3955,13 +3982,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -3988,13 +4015,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4215,43 +4242,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -4301,13 +4328,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -4340,13 +4367,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -4446,43 +4473,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -4547,13 +4574,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -4586,13 +4613,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4694,43 +4721,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -4795,13 +4822,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
@@ -4834,13 +4861,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5093,43 +5120,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -5209,13 +5236,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -5248,13 +5275,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -5507,43 +5534,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -5578,13 +5605,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -5617,13 +5644,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -5784,43 +5811,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -5885,13 +5912,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -5918,13 +5945,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5998,13 +6025,13 @@
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -6127,13 +6154,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -6250,43 +6277,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -6336,13 +6363,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
@@ -6375,13 +6402,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -6542,43 +6569,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6643,13 +6670,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -6682,13 +6709,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -6847,43 +6874,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6918,13 +6945,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -6957,13 +6984,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -7122,43 +7149,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -7208,13 +7235,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -7300,43 +7327,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -7386,13 +7413,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -7425,13 +7452,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -7665,43 +7692,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7766,13 +7793,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -7805,13 +7832,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -7911,43 +7938,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -8027,13 +8054,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -8066,13 +8093,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -8172,43 +8199,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -8273,13 +8300,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -8341,43 +8368,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -8457,13 +8484,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -8523,43 +8550,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
@@ -8594,13 +8621,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
@@ -8633,13 +8660,13 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -8739,43 +8766,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -8823,13 +8850,13 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -8856,13 +8883,13 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -8962,43 +8989,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -9046,13 +9073,13 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -9079,13 +9106,13 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -9185,43 +9212,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -9256,13 +9283,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
@@ -9334,13 +9361,13 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -9373,13 +9400,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -9412,13 +9439,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -9490,43 +9517,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -9600,13 +9627,13 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
@@ -9633,13 +9660,13 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -9672,13 +9699,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -9711,13 +9738,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -9771,10 +9798,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A6B621-60EF-4EFF-A096-4C25DB4716D7}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9789,43 +9816,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -9935,44 +9962,74 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" s="38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9980,7 +10037,7 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -10012,43 +10069,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -10122,13 +10179,13 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
@@ -10155,13 +10212,13 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -10194,13 +10251,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -10233,13 +10290,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -10294,7 +10351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CB2732-F391-4B78-B4DC-9D0A6FED6A79}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -10310,43 +10367,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
@@ -10381,13 +10438,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
@@ -10420,13 +10477,13 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -10487,13 +10544,13 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -10635,10 +10692,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3448F2-E006-4D3D-9AA2-4FF70651E0A5}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD18"/>
+      <selection activeCell="A19" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10653,43 +10710,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -10739,13 +10796,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -10778,13 +10835,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -10889,6 +10946,36 @@
       </c>
       <c r="E18" s="1" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E19" s="38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -10912,10 +10999,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC355C8E-E5D5-4A4E-A137-7D9CF2A0E1C9}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD17"/>
+      <selection activeCell="A18" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10930,43 +11017,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -11001,13 +11088,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -11040,13 +11127,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -11151,6 +11238,36 @@
       </c>
       <c r="E17" s="1" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E18" s="38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -11174,10 +11291,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE30CFD-1E1C-4897-96EA-7AE7C09D265A}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11192,43 +11309,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -11293,13 +11410,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -11332,13 +11449,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -11443,6 +11560,36 @@
       </c>
       <c r="E19" s="1" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E20" s="38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -11467,7 +11614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618D7D0-CD7D-49CE-827A-D1315FFF9DC1}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -11483,43 +11630,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -11554,13 +11701,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -11593,13 +11740,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -11713,43 +11860,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -11799,13 +11946,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -11868,43 +12015,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -11954,13 +12101,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46667\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F95C7DC-810C-4055-8467-F2EA5D43CCDC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="6" xr2:uid="{B5EA84EA-8358-446E-A651-AAF9D0A72668}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -210,12 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>errMsg</t>
-  </si>
-  <si>
     <t>SYY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,9 +603,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>recordCount</t>
-  </si>
-  <si>
     <t>记录总条数(分页获取时返回)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1711,13 +1701,25 @@
   </si>
   <si>
     <t>已售罄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1977,6 +1979,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2001,13 +2006,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{25499EF4-4CD6-44D7-A731-17199429F68B}"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3446,11 +3448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D5EC-E375-4492-919D-0F10795E6CD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3460,10 +3462,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="40"/>
+      <c r="A3" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="41"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -3472,17 +3474,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="E4" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -3491,17 +3493,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="E5" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -3510,241 +3512,241 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="E6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+        <v>57</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>435</v>
+        <v>424</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3752,47 +3754,47 @@
       <c r="B34" s="34"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="40"/>
+      <c r="A36" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="41"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>440</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>441</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>147</v>
+        <v>442</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="40"/>
+      <c r="A44" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="41"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3800,7 +3802,7 @@
         <v>999</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3808,7 +3810,7 @@
         <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3816,7 +3818,7 @@
         <v>102</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3831,34 +3833,34 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" location="Token!A1" display="Token" xr:uid="{7AB44DBD-4F03-40C0-B862-B6815D92412F}"/>
-    <hyperlink ref="A6" location="AddProject!A1" display="AddProject" xr:uid="{030E21BB-57A1-4AA2-8073-CEFD4E1FF5D2}"/>
-    <hyperlink ref="A7" location="GetAllProjects!A1" display="GetAllProjects" xr:uid="{CE313535-83EE-4EBE-941B-6A1B43337998}"/>
-    <hyperlink ref="A8" location="GetProjectByID!A1" display="GetProjectByID" xr:uid="{E2073BD3-C119-4564-B59F-F780021171D7}"/>
-    <hyperlink ref="A9" location="GetProjects!A1" display="GetProjects" xr:uid="{018EA42E-307B-481C-9E2A-DE3E5C031CE0}"/>
-    <hyperlink ref="A11" location="CheckBackEndAccount!A1" display="CheckBackEndAccount" xr:uid="{5F266735-8DA0-424D-9C3F-5732A5F02357}"/>
-    <hyperlink ref="A12" location="ImportHouseInfo!A1" display="ImportHouseInfo" xr:uid="{05393539-B346-4D05-A5B2-5DDEB6A9A74B}"/>
-    <hyperlink ref="A13" location="GetAllHouseEstateInfo!A1" display="GetAllHouseEstateInfo" xr:uid="{EEEE72D6-DD2E-483A-8D58-65954A7266E3}"/>
-    <hyperlink ref="A14" location="GetHouseEstates!A1" display="GetHouseEstates" xr:uid="{01A640A3-9645-4543-B235-06B3E3B17088}"/>
-    <hyperlink ref="A15" location="GetAllHouseInfo!A1" display="GetAllHouseInfo" xr:uid="{2012421C-7197-432E-BFFF-BC3EA15E5CCA}"/>
-    <hyperlink ref="A16" location="GetHouses!A1" display="GetHouses" xr:uid="{6A4D8A88-8447-4DB5-8AF9-951F8CF48F3F}"/>
-    <hyperlink ref="A17" location="GetHouseSubscriber!A1" display="GetHouseSubscriber" xr:uid="{5262C897-261E-469E-AC6E-E3339B05F83E}"/>
-    <hyperlink ref="A10" location="GetProjectGroup!A1" display="GetProjectGroup" xr:uid="{E0E81568-74F6-4B9E-94BD-B651F33BA187}"/>
-    <hyperlink ref="A19" location="GetAllSubscribers!A1" display="GetAllSubscribers" xr:uid="{1B82022D-CC0F-49AA-83B8-631DF60FA471}"/>
-    <hyperlink ref="A18" location="ImportSubscriber!A1" display="ImportSubscriber" xr:uid="{9067E440-741C-4FDC-9C26-1CB8862EE845}"/>
-    <hyperlink ref="A20" location="GetSubscribers!A1" display="GetSubscribers" xr:uid="{1227913F-0AF0-4330-B412-FF4AEEBF672B}"/>
-    <hyperlink ref="A21" location="GetSubscriberSelectionHistory!A1" display="GetSubscriberSelectionHistory" xr:uid="{7813DD15-3886-4B11-ADD0-F589A75460AE}"/>
-    <hyperlink ref="A22" location="GetSelectHouseInfo!A1" display="GetSelectHouseInfo" xr:uid="{C062566C-AFF1-46BE-9BE6-10E4EB5D21B9}"/>
-    <hyperlink ref="A23" location="GetAllFrontEndAccount!A1" display="GetAllFrontEndAccount" xr:uid="{3537C68C-1C60-4E7B-A7EA-A7A4FE821604}"/>
-    <hyperlink ref="A24" location="GetFrontEndAccount!A1" display="GetFrontEndAccount" xr:uid="{4FF72E46-A8D4-44C2-937E-94C91206E21F}"/>
-    <hyperlink ref="A25" location="AddFrontEndAccount!A1" display="AddFrontEndAccount" xr:uid="{F7F48FA4-2B3E-4B46-993F-DBA971285E02}"/>
-    <hyperlink ref="A26" location="EditFrontEndAccount!A1" display="EditFrontEndAccount" xr:uid="{C8989562-0FE0-4666-8C0E-EDB73DC12EA6}"/>
-    <hyperlink ref="A27" location="GetSelectTimePeriod!A1" display="GetSelectTimePeriod" xr:uid="{C081A06A-CCFF-4CD9-A3E4-DD7D327725EB}"/>
-    <hyperlink ref="A28" location="AddSelectTimePeriod!A1" display="AddSelectTimePeriod" xr:uid="{05575447-8BDB-41B0-8FFE-63AD0AD57486}"/>
-    <hyperlink ref="A29" location="EditSelectTimePeriod!A1" display="EditSelectTimePeriod" xr:uid="{5A96B844-9490-482B-9F5E-CDEB14B5CD31}"/>
-    <hyperlink ref="A30" location="GetProjectRoleBaseInfo!A1" display="GetProjectRoleBaseInfo" xr:uid="{0D93DD7C-1A6E-463A-B84A-0FD9A8C00210}"/>
-    <hyperlink ref="A31" location="AddSelectRole!A1" display="AddSelectRole" xr:uid="{8B6BEA52-419F-4244-9055-411040390FAA}"/>
-    <hyperlink ref="A32" location="EditSelectRole!A1" display="EditSelectRole" xr:uid="{85C6B676-BA1B-423E-B123-947DA13664C5}"/>
+    <hyperlink ref="A5" location="Token!A1" display="Token"/>
+    <hyperlink ref="A6" location="AddProject!A1" display="AddProject"/>
+    <hyperlink ref="A7" location="GetAllProjects!A1" display="GetAllProjects"/>
+    <hyperlink ref="A8" location="GetProjectByID!A1" display="GetProjectByID"/>
+    <hyperlink ref="A9" location="GetProjects!A1" display="GetProjects"/>
+    <hyperlink ref="A11" location="CheckBackEndAccount!A1" display="CheckBackEndAccount"/>
+    <hyperlink ref="A12" location="ImportHouseInfo!A1" display="ImportHouseInfo"/>
+    <hyperlink ref="A13" location="GetAllHouseEstateInfo!A1" display="GetAllHouseEstateInfo"/>
+    <hyperlink ref="A14" location="GetHouseEstates!A1" display="GetHouseEstates"/>
+    <hyperlink ref="A15" location="GetAllHouseInfo!A1" display="GetAllHouseInfo"/>
+    <hyperlink ref="A16" location="GetHouses!A1" display="GetHouses"/>
+    <hyperlink ref="A17" location="GetHouseSubscriber!A1" display="GetHouseSubscriber"/>
+    <hyperlink ref="A10" location="GetProjectGroup!A1" display="GetProjectGroup"/>
+    <hyperlink ref="A19" location="GetAllSubscribers!A1" display="GetAllSubscribers"/>
+    <hyperlink ref="A18" location="ImportSubscriber!A1" display="ImportSubscriber"/>
+    <hyperlink ref="A20" location="GetSubscribers!A1" display="GetSubscribers"/>
+    <hyperlink ref="A21" location="GetSubscriberSelectionHistory!A1" display="GetSubscriberSelectionHistory"/>
+    <hyperlink ref="A22" location="GetSelectHouseInfo!A1" display="GetSelectHouseInfo"/>
+    <hyperlink ref="A23" location="GetAllFrontEndAccount!A1" display="GetAllFrontEndAccount"/>
+    <hyperlink ref="A24" location="GetFrontEndAccount!A1" display="GetFrontEndAccount"/>
+    <hyperlink ref="A25" location="AddFrontEndAccount!A1" display="AddFrontEndAccount"/>
+    <hyperlink ref="A26" location="EditFrontEndAccount!A1" display="EditFrontEndAccount"/>
+    <hyperlink ref="A27" location="GetSelectTimePeriod!A1" display="GetSelectTimePeriod"/>
+    <hyperlink ref="A28" location="AddSelectTimePeriod!A1" display="AddSelectTimePeriod"/>
+    <hyperlink ref="A29" location="EditSelectTimePeriod!A1" display="EditSelectTimePeriod"/>
+    <hyperlink ref="A30" location="GetProjectRoleBaseInfo!A1" display="GetProjectRoleBaseInfo"/>
+    <hyperlink ref="A31" location="AddSelectRole!A1" display="AddSelectRole"/>
+    <hyperlink ref="A32" location="EditSelectRole!A1" display="EditSelectRole"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3867,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC69218C-5215-4760-84FD-FA47BEBF9E7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3884,43 +3886,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -3941,14 +3943,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -3956,25 +3958,25 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -3982,13 +3984,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -4015,24 +4017,24 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="A12" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -4040,44 +4042,44 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -4085,14 +4087,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -4100,14 +4102,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" s="10">
         <v>101</v>
@@ -4115,74 +4117,74 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23" s="11">
         <v>30000</v>
@@ -4190,14 +4192,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E24" s="11">
         <v>240000</v>
@@ -4214,7 +4216,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{DCC3582F-D446-40F9-B4ED-7CF596DD526B}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4223,7 +4225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C075CAA7-554E-41D2-9325-00D525DFB039}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4242,43 +4244,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -4299,14 +4301,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="14">
         <v>10</v>
@@ -4314,27 +4316,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -4355,36 +4357,36 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="A11" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -4392,7 +4394,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -4407,7 +4409,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -4422,17 +4424,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4446,7 +4448,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{EC673B49-EB47-4881-847C-35A3F69DFA51}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4455,7 +4457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8105BE3-6FC7-4033-9177-78B1233A0592}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4473,43 +4475,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -4530,29 +4532,29 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="14">
         <v>10</v>
@@ -4560,27 +4562,27 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -4601,36 +4603,36 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="A12" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -4638,7 +4640,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -4653,7 +4655,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -4668,17 +4670,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4692,7 +4694,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{237CF6B6-C64B-4E78-9297-4F6F3CB7F19E}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4701,7 +4703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0410AB-F2B2-4FC1-ACC0-074E62FD3BD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4721,43 +4723,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -4778,14 +4780,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" s="16">
         <v>3</v>
@@ -4793,14 +4795,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="16">
         <v>10</v>
@@ -4808,27 +4810,27 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
@@ -4849,36 +4851,36 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="A12" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -4886,44 +4888,44 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -4931,14 +4933,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -4946,14 +4948,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" s="10">
         <v>101</v>
@@ -4961,74 +4963,74 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23" s="11">
         <v>30000</v>
@@ -5036,14 +5038,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E24" s="11">
         <v>240000</v>
@@ -5051,16 +5053,16 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E25" s="16">
         <v>1</v>
@@ -5068,17 +5070,17 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5092,7 +5094,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{5BDBC607-0D9B-481D-9D8F-A782FCA52EBD}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5101,7 +5103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE232DD-C2DD-4576-BF05-4B1B60317F2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5120,43 +5122,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -5177,14 +5179,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" s="16">
         <v>3</v>
@@ -5192,29 +5194,29 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="16">
         <v>10</v>
@@ -5222,27 +5224,27 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -5263,36 +5265,36 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="A13" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
@@ -5300,44 +5302,44 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -5345,14 +5347,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
@@ -5360,14 +5362,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E19" s="10">
         <v>101</v>
@@ -5375,74 +5377,74 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E24" s="11">
         <v>30000</v>
@@ -5450,14 +5452,14 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E25" s="11">
         <v>240000</v>
@@ -5465,16 +5467,16 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E26" s="16">
         <v>1</v>
@@ -5482,17 +5484,17 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5506,7 +5508,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{0FFD66A5-6513-42C0-B800-D18A12AE3891}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5515,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5850D968-0427-4961-B831-04D8A8B011A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5534,43 +5536,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -5591,27 +5593,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E6" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -5632,144 +5634,144 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="A10" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5783,7 +5785,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{EC9F1314-A140-4F15-A62F-3559B252F419}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5792,7 +5794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845D4CFC-0494-47A0-B635-C2F8FB9A3CF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5811,43 +5813,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>392</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -5868,14 +5870,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="24">
         <v>3</v>
@@ -5883,14 +5885,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="24">
         <v>10</v>
@@ -5898,27 +5900,27 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -5945,296 +5947,296 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="A12" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
+      <c r="A18" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
+      <c r="A27" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6250,7 +6252,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{89482811-F09F-4A1D-9528-D667594DF432}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -6258,7 +6260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51347561-1DB4-4A32-9DDA-6870238873B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6277,43 +6279,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -6334,14 +6336,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="24">
         <v>10</v>
@@ -6349,27 +6351,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
@@ -6390,144 +6392,144 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="A11" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6541,7 +6543,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{9423A1D7-B0D9-4748-AA17-5D4E1F428A71}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -6550,7 +6552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9791F5-D126-40FE-B28B-0C0D17EAA1E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6569,43 +6571,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6626,14 +6628,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E6" s="26">
         <v>10</v>
@@ -6641,14 +6643,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="26">
         <v>10</v>
@@ -6656,27 +6658,27 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -6697,144 +6699,144 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="A12" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6848,14 +6850,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{9ADE22EC-466C-46E4-ACDD-A4F4F5579D6B}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72295025-172D-4CE3-ACC6-8085A41379B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6874,43 +6876,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6931,27 +6933,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E6" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -6972,44 +6974,44 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="A10" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -7019,12 +7021,12 @@
         <v>37</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -7034,82 +7036,82 @@
         <v>38</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -7123,7 +7125,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{AAA42286-9900-4836-ACF9-F75208469D28}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -7131,7 +7133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE3007E-8313-4761-BE0A-4669B47934BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7149,43 +7151,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -7216,7 +7218,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -7231,17 +7233,17 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -7272,7 +7274,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -7300,7 +7302,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{BB3CBA09-AD3D-4E48-8F6F-27303C943142}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -7308,7 +7310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64FAFE-6E43-4876-88EB-F8D4E0AE04D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7327,43 +7329,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -7384,14 +7386,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="26">
         <v>1</v>
@@ -7399,27 +7401,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E7" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -7440,51 +7442,51 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="A11" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -7492,44 +7494,44 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -7537,14 +7539,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -7552,14 +7554,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" s="10">
         <v>101</v>
@@ -7567,74 +7569,74 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23" s="11">
         <v>30000</v>
@@ -7642,14 +7644,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E24" s="11">
         <v>240000</v>
@@ -7666,14 +7668,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{F64D0E3D-1194-4343-8898-FB109C7FA3B7}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E017E-F98C-4E8F-9530-36494CBF555D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7692,43 +7694,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7749,29 +7751,29 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="28">
         <v>10</v>
@@ -7779,27 +7781,27 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -7820,36 +7822,36 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="A12" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -7857,47 +7859,47 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -7911,7 +7913,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{13BC709F-ABD1-49D3-8360-6AA6EE2325CC}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -7919,7 +7921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E050302D-AAD3-4B2C-ABFF-B3FE63A3B8FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7938,43 +7940,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7995,44 +7997,44 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="28">
         <v>10</v>
@@ -8040,27 +8042,27 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -8081,36 +8083,36 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="A13" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -8118,47 +8120,47 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +8174,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{8A03FDA2-DFA0-4882-9D7A-0D1864F7A35E}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -8180,7 +8182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BAF07A-C364-435A-8146-997555F6B955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8199,43 +8201,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -8256,14 +8258,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="28">
         <v>1</v>
@@ -8271,42 +8273,42 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -8342,7 +8344,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{950E8841-A39E-4BE3-B79F-20D17D633BB8}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -8350,7 +8352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C4BDE7-165C-4050-A8A9-19E5DFF609B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8368,43 +8370,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -8425,14 +8427,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="28">
         <v>1</v>
@@ -8440,57 +8442,57 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -8526,14 +8528,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{4201070F-EC26-4D4A-9266-13DF709A6AE1}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3C67A-3135-47A7-89A6-1DAA21E2FB2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8550,43 +8552,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
@@ -8607,27 +8609,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
@@ -8648,84 +8650,84 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="A10" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -8739,7 +8741,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{5BEDEDBC-3371-4911-B996-4D0AD015A519}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -8747,7 +8749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A34891D-AFAC-478A-8095-9E4ED95D251C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8766,43 +8768,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -8823,14 +8825,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -8838,25 +8840,25 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -8883,72 +8885,72 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="A11" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -8962,7 +8964,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{B3F34B04-07FF-49F8-A1D6-045E1CB88982}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -8970,7 +8972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053CEAF4-B7BF-4960-AD09-ADFDCADE132D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8989,43 +8991,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -9046,14 +9048,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -9061,25 +9063,25 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -9106,72 +9108,72 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="A11" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -9185,7 +9187,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{EF5E9798-D6F4-4A81-8D09-0D8780CFCD1F}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -9193,7 +9195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7873BC5-1DF2-4321-96AD-E5B466BE86EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9212,43 +9214,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -9269,27 +9271,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
@@ -9310,171 +9312,171 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="A13" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="A16" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
         <v>382</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -9490,7 +9492,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{4AA748D1-BD4C-46AB-B062-B466C4BF4A8F}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9498,7 +9500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7A4C03-E041-4887-A634-0C4E13041247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9517,43 +9519,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -9574,14 +9576,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -9589,51 +9591,51 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
@@ -9660,120 +9662,120 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="A13" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="A16" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="A19" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -9789,7 +9791,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{7A7D04EB-B50C-4F9B-AD4A-EE76E4BD2E24}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9797,7 +9799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A6B621-60EF-4EFF-A096-4C25DB4716D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9816,43 +9818,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -9933,44 +9935,44 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E12" s="38" t="b">
         <v>0</v>
@@ -9978,27 +9980,27 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -10041,7 +10043,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{254B1946-6325-45AD-9ED8-10B0B17F13CC}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -10050,7 +10052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6FE3F0-0CBA-4570-A5A5-EBF4F4A1C167}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10069,43 +10071,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>419</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>420</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -10126,14 +10128,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -10141,51 +10143,51 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
@@ -10212,120 +10214,120 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="A13" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="A16" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="A19" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -10341,14 +10343,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{6133302A-2277-44C3-8184-045EBAD6FB0B}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CB2732-F391-4B78-B4DC-9D0A6FED6A79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10367,43 +10369,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>434</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>429</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
@@ -10424,27 +10426,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
@@ -10465,233 +10467,233 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="A10" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
+      <c r="A15" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A15:E15"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{552D101C-3B11-4C59-BA84-DEAA017F22FF}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3448F2-E006-4D3D-9AA2-4FF70651E0A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10710,43 +10712,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -10767,14 +10769,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3">
         <v>10</v>
@@ -10782,27 +10784,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -10823,36 +10825,36 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -10920,44 +10922,44 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E19" s="38" t="b">
         <v>0</v>
@@ -10965,17 +10967,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -10989,7 +10991,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{E31AF0C2-32E7-4DD5-9798-C550A7533F64}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -10998,7 +11000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC355C8E-E5D5-4A4E-A137-7D9CF2A0E1C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11017,43 +11019,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -11074,27 +11076,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -11115,36 +11117,36 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -11212,44 +11214,44 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E18" s="38" t="b">
         <v>0</v>
@@ -11257,17 +11259,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -11281,7 +11283,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{049C18F6-2B14-4119-8D1B-CAC55D0BF5B0}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11290,7 +11292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE30CFD-1E1C-4897-96EA-7AE7C09D265A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11309,43 +11311,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -11366,29 +11368,29 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3">
         <v>10</v>
@@ -11396,27 +11398,27 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -11437,36 +11439,36 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -11534,44 +11536,44 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E20" s="38" t="b">
         <v>0</v>
@@ -11579,17 +11581,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -11603,7 +11605,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{836C18B2-6E41-41FF-97EF-8A5E7D3EC090}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -11611,10 +11613,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618D7D0-CD7D-49CE-827A-D1315FFF9DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -11630,43 +11632,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -11687,27 +11689,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E6" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -11728,36 +11730,36 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="A10" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="30">
         <v>1</v>
@@ -11765,7 +11767,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -11780,27 +11782,27 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E14" s="30">
         <v>1</v>
@@ -11808,17 +11810,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -11832,7 +11834,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{1CEF5E35-7172-4992-969B-2467016873FA}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11841,7 +11843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AE83B2-C86C-4CC9-A3A0-1E0DF25C1C59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11860,43 +11862,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -11917,42 +11919,42 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -11988,7 +11990,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{AD06B146-FD85-49A7-98B2-E1307EB57007}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11997,7 +11999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAAC7A2-EB54-41A8-A451-AFFBB9B4C6ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12015,43 +12017,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -12072,42 +12074,42 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
@@ -12143,7 +12145,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{EDFCEF49-3717-4F03-BAB7-45366090326D}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -1,48 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46667\source\repos\HouseSelection\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2B54C2AE-CE12-472C-BAC0-665B99A2C878}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
     <sheet name="Token" sheetId="2" r:id="rId2"/>
     <sheet name="AddProject" sheetId="1" r:id="rId3"/>
-    <sheet name="GetAllProjects" sheetId="3" r:id="rId4"/>
-    <sheet name="GetProjectByID" sheetId="4" r:id="rId5"/>
-    <sheet name="GetProjects" sheetId="5" r:id="rId6"/>
-    <sheet name="GetProjectGroup" sheetId="14" r:id="rId7"/>
-    <sheet name="CheckBackEndAccount" sheetId="7" r:id="rId8"/>
-    <sheet name="CheckFrontEndAccount" sheetId="16" r:id="rId9"/>
-    <sheet name="ImportHouseInfo" sheetId="8" r:id="rId10"/>
-    <sheet name="GetAllHouseEstateInfo" sheetId="9" r:id="rId11"/>
-    <sheet name="GetHouseEstates" sheetId="10" r:id="rId12"/>
-    <sheet name="GetAllHouseInfo" sheetId="11" r:id="rId13"/>
-    <sheet name="GetHouses" sheetId="12" r:id="rId14"/>
-    <sheet name="GetHouseSubscriber" sheetId="13" r:id="rId15"/>
-    <sheet name="ImportSubscriber" sheetId="17" r:id="rId16"/>
-    <sheet name="GetAllSubscribers" sheetId="15" r:id="rId17"/>
-    <sheet name="GetSubscribers" sheetId="20" r:id="rId18"/>
-    <sheet name="GetSubscriberSelectionHistory" sheetId="18" r:id="rId19"/>
-    <sheet name="GetSelectHouseInfo" sheetId="19" r:id="rId20"/>
-    <sheet name="GetAllFrontEndAccount" sheetId="21" r:id="rId21"/>
-    <sheet name="GetFrontEndAccount" sheetId="24" r:id="rId22"/>
-    <sheet name="AddFrontEndAccount" sheetId="22" r:id="rId23"/>
-    <sheet name="EditFrontEndAccount" sheetId="23" r:id="rId24"/>
-    <sheet name="GetSelectTimePeriod" sheetId="25" r:id="rId25"/>
-    <sheet name="AddSelectTimePeriod" sheetId="26" r:id="rId26"/>
-    <sheet name="EditSelectTimePeriod" sheetId="27" r:id="rId27"/>
-    <sheet name="GetProjectRoleBaseInfo" sheetId="28" r:id="rId28"/>
-    <sheet name="AddSelectRole" sheetId="29" r:id="rId29"/>
-    <sheet name="EditSelectRole" sheetId="30" r:id="rId30"/>
-    <sheet name="GetShakingNumbers" sheetId="31" r:id="rId31"/>
+    <sheet name="EditProject" sheetId="32" r:id="rId4"/>
+    <sheet name="CloseProject" sheetId="33" r:id="rId5"/>
+    <sheet name="GetAllProjects" sheetId="3" r:id="rId6"/>
+    <sheet name="GetProjectByID" sheetId="4" r:id="rId7"/>
+    <sheet name="GetProjects" sheetId="5" r:id="rId8"/>
+    <sheet name="GetProjectGroup" sheetId="14" r:id="rId9"/>
+    <sheet name="CheckBackEndAccount" sheetId="7" r:id="rId10"/>
+    <sheet name="CheckFrontEndAccount" sheetId="16" r:id="rId11"/>
+    <sheet name="ImportHouseInfo" sheetId="8" r:id="rId12"/>
+    <sheet name="GetAllHouseEstateInfo" sheetId="9" r:id="rId13"/>
+    <sheet name="GetHouseEstates" sheetId="10" r:id="rId14"/>
+    <sheet name="GetAllHouseInfo" sheetId="11" r:id="rId15"/>
+    <sheet name="GetHouses" sheetId="12" r:id="rId16"/>
+    <sheet name="GetHouseSubscriber" sheetId="13" r:id="rId17"/>
+    <sheet name="ImportSubscriber" sheetId="17" r:id="rId18"/>
+    <sheet name="GetAllSubscribers" sheetId="15" r:id="rId19"/>
+    <sheet name="GetSubscribers" sheetId="20" r:id="rId20"/>
+    <sheet name="GetSubscriberSelectionHistory" sheetId="18" r:id="rId21"/>
+    <sheet name="GetSelectHouseInfo" sheetId="19" r:id="rId22"/>
+    <sheet name="GetAllFrontEndAccount" sheetId="21" r:id="rId23"/>
+    <sheet name="GetFrontEndAccount" sheetId="24" r:id="rId24"/>
+    <sheet name="AddFrontEndAccount" sheetId="22" r:id="rId25"/>
+    <sheet name="EditFrontEndAccount" sheetId="23" r:id="rId26"/>
+    <sheet name="GetSelectTimePeriod" sheetId="25" r:id="rId27"/>
+    <sheet name="AddSelectTimePeriod" sheetId="26" r:id="rId28"/>
+    <sheet name="EditSelectTimePeriod" sheetId="27" r:id="rId29"/>
+    <sheet name="GetProjectRoleBaseInfo" sheetId="28" r:id="rId30"/>
+    <sheet name="AddSelectRole" sheetId="29" r:id="rId31"/>
+    <sheet name="EditSelectRole" sheetId="30" r:id="rId32"/>
+    <sheet name="GetShakingNumbers" sheetId="31" r:id="rId33"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="448">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1713,13 +1716,33 @@
   </si>
   <si>
     <t>RecordCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/EditProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/CloseProject</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1861,7 +1884,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1982,6 +2005,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2009,7 +2038,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2079,6 +2108,104 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>456182</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9D086A-BFC5-49BD-86F0-2B4BABFB63CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="104775"/>
+          <a:ext cx="8142857" cy="4647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408827</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A9126E-4524-4F9B-9780-5CBF0FD15741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="19050"/>
+          <a:ext cx="5980952" cy="4685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2123,7 +2250,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2172,7 +2299,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2221,7 +2348,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2270,7 +2397,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2319,7 +2446,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2368,7 +2495,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2417,7 +2544,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2455,104 +2582,6 @@
         <a:xfrm>
           <a:off x="10277475" y="0"/>
           <a:ext cx="6800000" cy="6180952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>265957</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>103902</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96492D8B-0EC5-43FB-924E-D4811804938A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6981825" y="0"/>
-          <a:ext cx="5942857" cy="6980952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>341888</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>84889</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2780D571-C32A-4596-BB77-7029187601FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6600825" y="95250"/>
-          <a:ext cx="8095238" cy="6685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2618,6 +2647,104 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265957</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96492D8B-0EC5-43FB-924E-D4811804938A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="0"/>
+          <a:ext cx="5942857" cy="6980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>341888</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>84889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2780D571-C32A-4596-BB77-7029187601FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="95250"/>
+          <a:ext cx="8095238" cy="6685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -2662,7 +2789,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2711,7 +2838,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2760,7 +2887,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2863,6 +2990,104 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>246871</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045673D5-1DFB-4308-9ACD-53616C323F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6391275" y="47625"/>
+          <a:ext cx="6228571" cy="4685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>246781</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC553B65-04CB-44D9-8720-9856E288E441}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7038975" y="609600"/>
+          <a:ext cx="6952381" cy="4666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -2907,7 +3132,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2956,7 +3181,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3005,7 +3230,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3043,104 +3268,6 @@
         <a:xfrm>
           <a:off x="7572375" y="0"/>
           <a:ext cx="6114286" cy="7761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>456182</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47044</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9D086A-BFC5-49BD-86F0-2B4BABFB63CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7877175" y="104775"/>
-          <a:ext cx="8142857" cy="4647619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>408827</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180389</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A9126E-4524-4F9B-9780-5CBF0FD15741}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7143750" y="19050"/>
-          <a:ext cx="5980952" cy="4685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3448,10 +3575,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -3462,10 +3589,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -3474,17 +3601,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -3493,17 +3620,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -3512,17 +3639,17 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -3531,15 +3658,15 @@
       <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -3754,10 +3881,10 @@
       <c r="B34" s="34"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="43"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -3784,10 +3911,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="41"/>
+      <c r="B44" s="43"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -3833,34 +3960,34 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" location="Token!A1" display="Token"/>
-    <hyperlink ref="A6" location="AddProject!A1" display="AddProject"/>
-    <hyperlink ref="A7" location="GetAllProjects!A1" display="GetAllProjects"/>
-    <hyperlink ref="A8" location="GetProjectByID!A1" display="GetProjectByID"/>
-    <hyperlink ref="A9" location="GetProjects!A1" display="GetProjects"/>
-    <hyperlink ref="A11" location="CheckBackEndAccount!A1" display="CheckBackEndAccount"/>
-    <hyperlink ref="A12" location="ImportHouseInfo!A1" display="ImportHouseInfo"/>
-    <hyperlink ref="A13" location="GetAllHouseEstateInfo!A1" display="GetAllHouseEstateInfo"/>
-    <hyperlink ref="A14" location="GetHouseEstates!A1" display="GetHouseEstates"/>
-    <hyperlink ref="A15" location="GetAllHouseInfo!A1" display="GetAllHouseInfo"/>
-    <hyperlink ref="A16" location="GetHouses!A1" display="GetHouses"/>
-    <hyperlink ref="A17" location="GetHouseSubscriber!A1" display="GetHouseSubscriber"/>
-    <hyperlink ref="A10" location="GetProjectGroup!A1" display="GetProjectGroup"/>
-    <hyperlink ref="A19" location="GetAllSubscribers!A1" display="GetAllSubscribers"/>
-    <hyperlink ref="A18" location="ImportSubscriber!A1" display="ImportSubscriber"/>
-    <hyperlink ref="A20" location="GetSubscribers!A1" display="GetSubscribers"/>
-    <hyperlink ref="A21" location="GetSubscriberSelectionHistory!A1" display="GetSubscriberSelectionHistory"/>
-    <hyperlink ref="A22" location="GetSelectHouseInfo!A1" display="GetSelectHouseInfo"/>
-    <hyperlink ref="A23" location="GetAllFrontEndAccount!A1" display="GetAllFrontEndAccount"/>
-    <hyperlink ref="A24" location="GetFrontEndAccount!A1" display="GetFrontEndAccount"/>
-    <hyperlink ref="A25" location="AddFrontEndAccount!A1" display="AddFrontEndAccount"/>
-    <hyperlink ref="A26" location="EditFrontEndAccount!A1" display="EditFrontEndAccount"/>
-    <hyperlink ref="A27" location="GetSelectTimePeriod!A1" display="GetSelectTimePeriod"/>
-    <hyperlink ref="A28" location="AddSelectTimePeriod!A1" display="AddSelectTimePeriod"/>
-    <hyperlink ref="A29" location="EditSelectTimePeriod!A1" display="EditSelectTimePeriod"/>
-    <hyperlink ref="A30" location="GetProjectRoleBaseInfo!A1" display="GetProjectRoleBaseInfo"/>
-    <hyperlink ref="A31" location="AddSelectRole!A1" display="AddSelectRole"/>
-    <hyperlink ref="A32" location="EditSelectRole!A1" display="EditSelectRole"/>
+    <hyperlink ref="A5" location="Token!A1" display="Token" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A6" location="AddProject!A1" display="AddProject" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A7" location="GetAllProjects!A1" display="GetAllProjects" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A8" location="GetProjectByID!A1" display="GetProjectByID" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A9" location="GetProjects!A1" display="GetProjects" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A11" location="CheckBackEndAccount!A1" display="CheckBackEndAccount" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A12" location="ImportHouseInfo!A1" display="ImportHouseInfo" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A13" location="GetAllHouseEstateInfo!A1" display="GetAllHouseEstateInfo" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A14" location="GetHouseEstates!A1" display="GetHouseEstates" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A15" location="GetAllHouseInfo!A1" display="GetAllHouseInfo" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A16" location="GetHouses!A1" display="GetHouses" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A17" location="GetHouseSubscriber!A1" display="GetHouseSubscriber" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A10" location="GetProjectGroup!A1" display="GetProjectGroup" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A19" location="GetAllSubscribers!A1" display="GetAllSubscribers" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A18" location="ImportSubscriber!A1" display="ImportSubscriber" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A20" location="GetSubscribers!A1" display="GetSubscribers" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A21" location="GetSubscriberSelectionHistory!A1" display="GetSubscriberSelectionHistory" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A22" location="GetSelectHouseInfo!A1" display="GetSelectHouseInfo" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A23" location="GetAllFrontEndAccount!A1" display="GetAllFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A24" location="GetFrontEndAccount!A1" display="GetFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A25" location="AddFrontEndAccount!A1" display="AddFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A26" location="EditFrontEndAccount!A1" display="EditFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A27" location="GetSelectTimePeriod!A1" display="GetSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A28" location="AddSelectTimePeriod!A1" display="AddSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A29" location="EditSelectTimePeriod!A1" display="EditSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A30" location="GetProjectRoleBaseInfo!A1" display="GetProjectRoleBaseInfo" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A31" location="AddSelectRole!A1" display="AddSelectRole" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A32" location="EditSelectRole!A1" display="EditSelectRole" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3869,7 +3996,317 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3886,43 +4323,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -3984,13 +4421,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -4017,13 +4454,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4216,7 +4653,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4224,8 +4661,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4244,43 +4681,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -4330,13 +4767,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -4369,13 +4806,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -4448,7 +4885,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4456,8 +4893,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4475,43 +4912,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -4576,13 +5013,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -4615,13 +5052,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4694,7 +5131,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4702,8 +5139,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4723,43 +5160,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -4824,13 +5261,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
@@ -4863,13 +5300,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5094,7 +5531,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5102,8 +5539,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5122,43 +5559,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -5238,13 +5675,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -5277,13 +5714,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -5508,7 +5945,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5516,8 +5953,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5536,43 +5973,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -5607,13 +6044,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -5646,13 +6083,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -5785,7 +6222,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5793,8 +6230,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5813,43 +6250,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -5914,13 +6351,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -5947,13 +6384,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -6027,13 +6464,13 @@
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -6156,13 +6593,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -6252,15 +6689,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6279,43 +6716,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -6365,13 +6802,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
@@ -6404,13 +6841,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -6543,7 +6980,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -6551,8 +6988,185 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="86" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6571,43 +7185,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6672,13 +7286,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -6711,13 +7325,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -6850,14 +7464,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6876,43 +7490,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -6947,13 +7561,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -6986,13 +7600,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -7125,192 +7739,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="86" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3600</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A8:E8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7329,43 +7766,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -7415,13 +7852,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -7454,13 +7891,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -7668,14 +8105,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7694,43 +8131,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -7795,13 +8232,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -7834,13 +8271,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -7913,15 +8350,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7940,43 +8377,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -8056,13 +8493,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -8095,13 +8532,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -8174,15 +8611,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8201,43 +8638,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -8302,13 +8739,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -8344,15 +8781,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8370,43 +8807,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -8486,13 +8923,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
@@ -8528,14 +8965,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8552,43 +8989,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
@@ -8623,13 +9060,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
@@ -8662,13 +9099,13 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -8741,15 +9178,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8768,43 +9205,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -8852,13 +9289,13 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -8885,13 +9322,13 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -8964,15 +9401,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8991,43 +9428,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -9075,13 +9512,13 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -9108,13 +9545,13 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -9187,15 +9624,268 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="A1:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E12" s="38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9214,43 +9904,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -9285,13 +9975,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
@@ -9363,13 +10053,13 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -9402,13 +10092,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -9441,13 +10131,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -9492,15 +10182,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9519,43 +10209,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -9629,13 +10319,13 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
@@ -9662,13 +10352,13 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -9701,13 +10391,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -9740,13 +10430,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -9791,268 +10481,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E12" s="38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A14:E14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10071,43 +10508,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>418</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -10181,13 +10618,13 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
@@ -10214,13 +10651,13 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -10253,13 +10690,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -10292,13 +10729,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -10343,14 +10780,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10369,43 +10806,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>426</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
@@ -10440,13 +10877,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
@@ -10479,13 +10916,13 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -10546,13 +10983,13 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -10686,14 +11123,442 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAC2F4E-F0BF-42F2-B31D-783DF43222D5}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="A1:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E13" s="41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A15:E15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{698CF979-E3D5-4993-8DE9-8CAB40339D8E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1080202-0A0C-4EBC-9D75-3AE26676E36C}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{532DD38E-2E90-44B6-AC41-B399F7FEF15A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10712,43 +11577,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -10798,13 +11663,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -10837,13 +11702,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -10991,7 +11856,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -10999,8 +11864,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11019,43 +11884,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -11090,13 +11955,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -11129,13 +11994,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -11283,7 +12148,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11291,8 +12156,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11311,43 +12176,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -11412,13 +12277,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -11451,13 +12316,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -11605,15 +12470,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11632,43 +12497,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -11703,13 +12568,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -11742,13 +12607,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -11834,320 +12699,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A8:E8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A8:E8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2B54C2AE-CE12-472C-BAC0-665B99A2C878}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F324A026-4BC0-4C7F-8194-183EA87E0C29}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="452">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1736,6 +1736,22 @@
   </si>
   <si>
     <t>http://xxx.xxx.xxx.xxx/api/CloseProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1884,7 +1900,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2035,6 +2051,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2060,13 +2079,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>255669</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>18754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3576,10 +3595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M48"/>
+  <dimension ref="A3:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3652,13 +3671,15 @@
       <c r="M6" s="42"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>54</v>
+      <c r="A7" s="50" t="s">
+        <v>448</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="42"/>
+        <v>451</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>73</v>
+      </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -3670,324 +3691,364 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>115</v>
+        <v>216</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>160</v>
+        <v>74</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>286</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>352</v>
+        <v>324</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>342</v>
+        <v>308</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>388</v>
+        <v>358</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>433</v>
+        <v>359</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="33" t="s">
+    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B35" s="39" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
+    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="43"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B38" s="43"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="43"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>999</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B46" s="43"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
+        <v>999</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>101</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>102</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E9:M9"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E8:M8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A5" location="Token!A1" display="Token" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A6" location="AddProject!A1" display="AddProject" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A7" location="GetAllProjects!A1" display="GetAllProjects" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A8" location="GetProjectByID!A1" display="GetProjectByID" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A9" location="GetProjects!A1" display="GetProjects" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A11" location="CheckBackEndAccount!A1" display="CheckBackEndAccount" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A12" location="ImportHouseInfo!A1" display="ImportHouseInfo" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A13" location="GetAllHouseEstateInfo!A1" display="GetAllHouseEstateInfo" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A14" location="GetHouseEstates!A1" display="GetHouseEstates" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A15" location="GetAllHouseInfo!A1" display="GetAllHouseInfo" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A16" location="GetHouses!A1" display="GetHouses" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A17" location="GetHouseSubscriber!A1" display="GetHouseSubscriber" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A10" location="GetProjectGroup!A1" display="GetProjectGroup" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A19" location="GetAllSubscribers!A1" display="GetAllSubscribers" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A18" location="ImportSubscriber!A1" display="ImportSubscriber" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A20" location="GetSubscribers!A1" display="GetSubscribers" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A21" location="GetSubscriberSelectionHistory!A1" display="GetSubscriberSelectionHistory" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A22" location="GetSelectHouseInfo!A1" display="GetSelectHouseInfo" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A23" location="GetAllFrontEndAccount!A1" display="GetAllFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A24" location="GetFrontEndAccount!A1" display="GetFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A25" location="AddFrontEndAccount!A1" display="AddFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A26" location="EditFrontEndAccount!A1" display="EditFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A27" location="GetSelectTimePeriod!A1" display="GetSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A28" location="AddSelectTimePeriod!A1" display="AddSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A29" location="EditSelectTimePeriod!A1" display="EditSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A30" location="GetProjectRoleBaseInfo!A1" display="GetProjectRoleBaseInfo" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A31" location="AddSelectRole!A1" display="AddSelectRole" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A32" location="EditSelectRole!A1" display="EditSelectRole" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A9" location="GetAllProjects!A1" display="GetAllProjects" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A10" location="GetProjectByID!A1" display="GetProjectByID" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A11" location="GetProjects!A1" display="GetProjects" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A13" location="CheckBackEndAccount!A1" display="CheckBackEndAccount" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A14" location="ImportHouseInfo!A1" display="ImportHouseInfo" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A15" location="GetAllHouseEstateInfo!A1" display="GetAllHouseEstateInfo" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A16" location="GetHouseEstates!A1" display="GetHouseEstates" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A17" location="GetAllHouseInfo!A1" display="GetAllHouseInfo" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A18" location="GetHouses!A1" display="GetHouses" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A19" location="GetHouseSubscriber!A1" display="GetHouseSubscriber" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A12" location="GetProjectGroup!A1" display="GetProjectGroup" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A21" location="GetAllSubscribers!A1" display="GetAllSubscribers" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A20" location="ImportSubscriber!A1" display="ImportSubscriber" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A22" location="GetSubscribers!A1" display="GetSubscribers" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A23" location="GetSubscriberSelectionHistory!A1" display="GetSubscriberSelectionHistory" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A24" location="GetSelectHouseInfo!A1" display="GetSelectHouseInfo" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A25" location="GetAllFrontEndAccount!A1" display="GetAllFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A26" location="GetFrontEndAccount!A1" display="GetFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A27" location="AddFrontEndAccount!A1" display="AddFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A28" location="EditFrontEndAccount!A1" display="EditFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A29" location="GetSelectTimePeriod!A1" display="GetSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A30" location="AddSelectTimePeriod!A1" display="AddSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A31" location="EditSelectTimePeriod!A1" display="EditSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A32" location="GetProjectRoleBaseInfo!A1" display="GetProjectRoleBaseInfo" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A33" location="AddSelectRole!A1" display="AddSelectRole" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A34" location="EditSelectRole!A1" display="EditSelectRole" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A8" location="CloseProject!A1" display="CloseProject" xr:uid="{CB4451A7-D33F-44CE-BAE1-FEF29547D356}"/>
+    <hyperlink ref="A7" location="EditProject!A1" display="EditProject" xr:uid="{2B0CAF39-66CA-4158-876D-DEFF6B8AEAFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11400,7 +11461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1080202-0A0C-4EBC-9D75-3AE26676E36C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8007176F-FEDD-440C-9CFC-8FD2DF32B4AE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{181EED87-E7D9-4A6E-9084-4DEBD6E24C6C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="22" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="471">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1174,30 +1174,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属项目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账号名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保利花园一期项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1(为0时获取所有)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取前台账号信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1810,6 +1794,42 @@
   </si>
   <si>
     <t>GetSubscriberByHouseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联项目列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;AccountProjectEntity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountProjectEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保利花园一期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1947,7 +1967,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2080,6 +2100,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2102,9 +2134,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2719,22 +2748,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>265957</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>103902</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>484915</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>84764</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96492D8B-0EC5-43FB-924E-D4811804938A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDABA69B-BF04-45A8-A3BE-2F42F9F01B10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,8 +2779,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6981825" y="0"/>
-          <a:ext cx="5942857" cy="6980952"/>
+          <a:off x="6953250" y="0"/>
+          <a:ext cx="6876190" cy="7685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2767,23 +2796,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>341888</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>84889</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>170711</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2780D571-C32A-4596-BB77-7029187601FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28ED931B-6ABD-4062-AD07-A537070A2903}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,8 +2828,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6600825" y="95250"/>
-          <a:ext cx="8095238" cy="6685714"/>
+          <a:off x="7239000" y="228600"/>
+          <a:ext cx="5914286" cy="6466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2817,22 +2846,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>132437</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142287</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>380251</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170831</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EAAF114-E7AD-4DD7-96B2-7A7A0CF7F9DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001D2A32-354A-49B8-83DF-E9099D97F277}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2848,8 +2877,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8267700" y="142875"/>
-          <a:ext cx="7304762" cy="4704762"/>
+          <a:off x="8458200" y="104775"/>
+          <a:ext cx="5990476" cy="4952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2862,6 +2891,55 @@
 </file>
 
 <file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>332613</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD873F7-C53C-4655-90BD-1ED7A076C113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="142875"/>
+          <a:ext cx="6095238" cy="4504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2910,7 +2988,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2959,7 +3037,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3008,7 +3086,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3699,8 +3777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3710,10 +3788,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -3722,17 +3800,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -3741,17 +3819,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -3760,51 +3838,51 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
+        <v>442</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
+        <v>441</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -3813,15 +3891,15 @@
       <c r="B9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -3841,7 +3919,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>215</v>
@@ -3865,7 +3943,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>158</v>
@@ -3873,7 +3951,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>159</v>
@@ -3900,12 +3978,12 @@
         <v>173</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>176</v>
@@ -3953,98 +4031,98 @@
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4052,14 +4130,14 @@
       <c r="B38" s="34"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="45"/>
+      <c r="B40" s="49"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>81</v>
@@ -4067,7 +4145,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>82</v>
@@ -4075,17 +4153,17 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="45"/>
+      <c r="B48" s="49"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
@@ -4192,43 +4270,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -4278,13 +4356,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -4347,43 +4425,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -4433,13 +4511,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
@@ -4500,43 +4578,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -4598,13 +4676,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -4631,13 +4709,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4856,43 +4934,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -4942,13 +5020,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -4981,13 +5059,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -5087,43 +5165,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -5188,13 +5266,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -5227,13 +5305,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5335,43 +5413,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -5436,13 +5514,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
@@ -5475,17 +5553,17 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
@@ -5749,43 +5827,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -5821,7 +5899,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -5865,13 +5943,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -5904,13 +5982,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -6163,43 +6241,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -6234,13 +6312,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -6273,13 +6351,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -6440,43 +6518,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>460</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
@@ -6511,13 +6589,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
@@ -6673,16 +6751,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="E18" s="52">
+        <v>459</v>
+      </c>
+      <c r="E18" s="45">
         <v>43257.5</v>
       </c>
     </row>
@@ -6722,43 +6800,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>384</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -6823,13 +6901,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -6856,13 +6934,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -6881,14 +6959,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>249</v>
@@ -6924,7 +7002,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>235</v>
@@ -6936,13 +7014,13 @@
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -7065,13 +7143,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -7187,43 +7265,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -7273,13 +7351,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -7365,43 +7443,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -7451,13 +7529,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
@@ -7490,13 +7568,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -7657,43 +7735,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -7758,13 +7836,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -7797,17 +7875,17 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
@@ -7977,43 +8055,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -8048,13 +8126,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -8087,13 +8165,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -8251,43 +8329,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -8337,13 +8415,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -8376,13 +8454,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -8598,10 +8676,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8616,222 +8694,245 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>317</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="46" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>302</v>
+        <v>44</v>
+      </c>
+      <c r="E6" s="47">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="28">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="E7" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="28">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>465</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>301</v>
+        <v>51</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A12:E12"/>
+  <mergeCells count="7">
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8844,10 +8945,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="A1:E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8862,237 +8963,260 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="46" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>204</v>
+        <v>470</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>302</v>
+        <v>169</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>301</v>
+        <v>44</v>
+      </c>
+      <c r="E7" s="47">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="28">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="E8" s="47">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="28">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>293</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>465</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+    </row>
+    <row r="17" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>301</v>
+        <v>51</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A13:E13"/>
+  <mergeCells count="7">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9108,7 +9232,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:E11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9123,43 +9247,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -9183,15 +9307,13 @@
         <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>462</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="28">
-        <v>1</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -9202,35 +9324,35 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -9269,16 +9391,17 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="A1:E12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9292,43 +9415,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -9349,14 +9472,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>296</v>
       </c>
       <c r="E6" s="28">
         <v>1</v>
@@ -9371,74 +9494,87 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E10" s="44"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E12" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9446,13 +9582,15 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9474,43 +9612,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
@@ -9531,7 +9669,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -9545,13 +9683,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
@@ -9572,66 +9710,66 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="A10" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>249</v>
@@ -9639,17 +9777,17 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -9690,43 +9828,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>351</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -9747,7 +9885,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -9762,25 +9900,25 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -9807,54 +9945,54 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
+      <c r="A11" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>249</v>
@@ -9862,17 +10000,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -9913,43 +10051,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -10030,17 +10168,17 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -10052,22 +10190,22 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E12" s="38" t="b">
         <v>0</v>
@@ -10075,27 +10213,27 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -10166,43 +10304,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>351</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>353</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -10223,7 +10361,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -10238,25 +10376,25 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -10283,54 +10421,54 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
+      <c r="A11" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>249</v>
@@ -10338,17 +10476,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -10389,43 +10527,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>358</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>359</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -10460,13 +10598,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
@@ -10490,7 +10628,7 @@
         <v>206</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -10500,51 +10638,51 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>369</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
+      <c r="A13" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -10577,24 +10715,24 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>370</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="A16" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>249</v>
@@ -10602,38 +10740,38 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
-        <v>377</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
+      <c r="A19" s="53" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>249</v>
@@ -10641,14 +10779,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>104</v>
@@ -10693,43 +10831,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>392</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -10765,51 +10903,51 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
@@ -10836,13 +10974,13 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
+      <c r="A13" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -10861,38 +10999,38 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="A16" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>249</v>
@@ -10900,27 +11038,27 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
-        <v>406</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
+      <c r="A19" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -10939,17 +11077,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -10992,43 +11130,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>455</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
@@ -11063,13 +11201,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
@@ -11090,51 +11228,51 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
+      <c r="A12" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -11153,38 +11291,38 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
+      <c r="A15" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>249</v>
@@ -11192,27 +11330,27 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>406</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
+      <c r="A18" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -11231,17 +11369,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -11283,43 +11421,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>411</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>412</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -11355,51 +11493,51 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
@@ -11426,13 +11564,13 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
+      <c r="A13" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -11451,38 +11589,38 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="A16" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>249</v>
@@ -11490,27 +11628,27 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
-        <v>406</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
+      <c r="A19" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -11529,17 +11667,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -11581,43 +11719,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>426</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
@@ -11652,13 +11790,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
@@ -11679,25 +11817,25 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>425</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="A10" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -11716,14 +11854,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>249</v>
@@ -11758,13 +11896,13 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -11923,43 +12061,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>438</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>440</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
@@ -12055,17 +12193,17 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -12077,22 +12215,22 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E13" s="40" t="b">
         <v>0</v>
@@ -12100,27 +12238,27 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
@@ -12190,43 +12328,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>440</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>442</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
@@ -12262,27 +12400,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
@@ -12352,43 +12490,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -12438,13 +12576,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -12477,13 +12615,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -12562,17 +12700,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -12584,22 +12722,22 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E19" s="38" t="b">
         <v>0</v>
@@ -12607,17 +12745,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -12659,43 +12797,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -12730,13 +12868,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -12769,13 +12907,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -12854,17 +12992,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -12876,22 +13014,22 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E18" s="38" t="b">
         <v>0</v>
@@ -12899,17 +13037,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -12951,43 +13089,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -13052,13 +13190,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -13091,13 +13229,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -13176,17 +13314,17 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -13198,22 +13336,22 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E20" s="38" t="b">
         <v>0</v>
@@ -13221,17 +13359,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -13272,43 +13410,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -13336,20 +13474,20 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E6" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -13382,17 +13520,17 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -13429,7 +13567,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E13" s="30"/>
     </row>

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{181EED87-E7D9-4A6E-9084-4DEBD6E24C6C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DDAA1457-4EFC-4472-B73E-3BEA4BC4C1FE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="22" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -35,19 +35,20 @@
     <sheet name="GetAllSubscribers" sheetId="15" r:id="rId20"/>
     <sheet name="GetSubscribers" sheetId="20" r:id="rId21"/>
     <sheet name="GetSubscriberSelectionHistory" sheetId="18" r:id="rId22"/>
-    <sheet name="GetSelectHouseInfo" sheetId="19" r:id="rId23"/>
-    <sheet name="GetAllFrontEndAccount" sheetId="21" r:id="rId24"/>
-    <sheet name="GetFrontEndAccount" sheetId="24" r:id="rId25"/>
-    <sheet name="AddFrontEndAccount" sheetId="22" r:id="rId26"/>
-    <sheet name="EditFrontEndAccount" sheetId="23" r:id="rId27"/>
-    <sheet name="GetSelectTimePeriod" sheetId="25" r:id="rId28"/>
-    <sheet name="AddSelectTimePeriod" sheetId="26" r:id="rId29"/>
-    <sheet name="EditSelectTimePeriod" sheetId="27" r:id="rId30"/>
-    <sheet name="GetProjectRoleBaseInfo" sheetId="28" r:id="rId31"/>
-    <sheet name="AddSelectRole" sheetId="29" r:id="rId32"/>
-    <sheet name="GetSelectRoleByProjectID" sheetId="34" r:id="rId33"/>
-    <sheet name="EditSelectRole" sheetId="30" r:id="rId34"/>
-    <sheet name="GetShakingNumbers" sheetId="31" r:id="rId35"/>
+    <sheet name="GetSelectionDetail" sheetId="36" r:id="rId23"/>
+    <sheet name="GetSelectHouseInfo" sheetId="19" r:id="rId24"/>
+    <sheet name="GetAllFrontEndAccount" sheetId="21" r:id="rId25"/>
+    <sheet name="GetFrontEndAccount" sheetId="24" r:id="rId26"/>
+    <sheet name="AddFrontEndAccount" sheetId="22" r:id="rId27"/>
+    <sheet name="EditFrontEndAccount" sheetId="23" r:id="rId28"/>
+    <sheet name="GetSelectTimePeriod" sheetId="25" r:id="rId29"/>
+    <sheet name="AddSelectTimePeriod" sheetId="26" r:id="rId30"/>
+    <sheet name="EditSelectTimePeriod" sheetId="27" r:id="rId31"/>
+    <sheet name="GetProjectRoleBaseInfo" sheetId="28" r:id="rId32"/>
+    <sheet name="AddSelectRole" sheetId="29" r:id="rId33"/>
+    <sheet name="GetSelectRoleByProjectID" sheetId="34" r:id="rId34"/>
+    <sheet name="EditSelectRole" sheetId="30" r:id="rId35"/>
+    <sheet name="GetShakingNumbers" sheetId="31" r:id="rId36"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="501">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1074,10 +1075,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-未通知;1-有效电话;2-未接通;3-号码有误;4-非本人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0-未验证;1-已验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1830,6 +1827,122 @@
   </si>
   <si>
     <t>SearchStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbandonStatus</t>
+  </si>
+  <si>
+    <t>弃选状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-未通知;1-有效电话;2-关机;3-不在服务区;4-停机;5-无人接听;6-挂断7-空号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-未弃选;1-已弃选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSelectionDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/GetSelectionDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取选房信息明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>House</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>SelectImageUrl1</t>
+  </si>
+  <si>
+    <t>SelectImageUrl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectImageUrl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAbandon</t>
+  </si>
+  <si>
+    <t>AbandonTime</t>
+  </si>
+  <si>
+    <t>AbandonImageUrl1</t>
+  </si>
+  <si>
+    <t>AbandonImageUrl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbandonImageUrl3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime?</t>
+  </si>
+  <si>
+    <t>认购房源对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房照片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房照片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房照片3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否弃选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃选时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃选照片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃选照片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃选照片3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSelectionDetail</t>
+  </si>
+  <si>
+    <t>认购人选房明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1967,7 +2080,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2104,6 +2217,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2650,22 +2769,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>8657</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>75417</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361162</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161158</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A06960-3CB6-4EB9-88DF-DF7D0C26411E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5574AA1D-0455-45BC-B78E-08380F0A58F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2681,8 +2800,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10353675" y="142875"/>
-          <a:ext cx="6942857" cy="6266667"/>
+          <a:off x="11658600" y="0"/>
+          <a:ext cx="6304762" cy="6133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3775,10 +3894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M52"/>
+  <dimension ref="A3:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3788,10 +3907,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -3800,17 +3919,17 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -3819,17 +3938,17 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -3838,51 +3957,51 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+        <v>441</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -3891,15 +4010,15 @@
       <c r="B9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -3919,7 +4038,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>215</v>
@@ -3943,7 +4062,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>158</v>
@@ -3951,7 +4070,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>159</v>
@@ -3978,12 +4097,12 @@
         <v>173</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>176</v>
@@ -3999,10 +4118,10 @@
     </row>
     <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4010,7 +4129,7 @@
         <v>217</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4018,182 +4137,190 @@
         <v>253</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>275</v>
+        <v>499</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>288</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>344</v>
+        <v>299</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>379</v>
+        <v>350</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+      <c r="A38" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="49"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="B41" s="51"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="49" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="49"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="B49" s="51"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>101</v>
+        <v>999</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
+        <v>101</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>102</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4202,8 +4329,8 @@
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E9:M9"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E5:M5"/>
     <mergeCell ref="E7:M7"/>
@@ -4228,21 +4355,22 @@
     <hyperlink ref="A21" location="ImportSubscriber!A1" display="ImportSubscriber" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="A23" location="GetSubscribers!A1" display="GetSubscribers" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="A24" location="GetSubscriberSelectionHistory!A1" display="GetSubscriberSelectionHistory" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A25" location="GetSelectHouseInfo!A1" display="GetSelectHouseInfo" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A26" location="GetAllFrontEndAccount!A1" display="GetAllFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A27" location="GetFrontEndAccount!A1" display="GetFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A28" location="AddFrontEndAccount!A1" display="AddFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A29" location="EditFrontEndAccount!A1" display="EditFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A30" location="GetSelectTimePeriod!A1" display="GetSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A31" location="AddSelectTimePeriod!A1" display="AddSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A32" location="EditSelectTimePeriod!A1" display="EditSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A33" location="GetProjectRoleBaseInfo!A1" display="GetProjectRoleBaseInfo" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A34" location="AddSelectRole!A1" display="AddSelectRole" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A36" location="EditSelectRole!A1" display="EditSelectRole" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A26" location="GetSelectHouseInfo!A1" display="GetSelectHouseInfo" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A27" location="GetAllFrontEndAccount!A1" display="GetAllFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A28" location="GetFrontEndAccount!A1" display="GetFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A29" location="AddFrontEndAccount!A1" display="AddFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A30" location="EditFrontEndAccount!A1" display="EditFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A31" location="GetSelectTimePeriod!A1" display="GetSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A32" location="AddSelectTimePeriod!A1" display="AddSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A33" location="EditSelectTimePeriod!A1" display="EditSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A34" location="GetProjectRoleBaseInfo!A1" display="GetProjectRoleBaseInfo" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A35" location="AddSelectRole!A1" display="AddSelectRole" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A37" location="EditSelectRole!A1" display="EditSelectRole" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="A8" location="CloseProject!A1" display="CloseProject" xr:uid="{CB4451A7-D33F-44CE-BAE1-FEF29547D356}"/>
     <hyperlink ref="A7" location="EditProject!A1" display="EditProject" xr:uid="{2B0CAF39-66CA-4158-876D-DEFF6B8AEAFB}"/>
-    <hyperlink ref="A35" location="GetSelectRoleByProjectID!A1" display="GetSelectRoleByProjectID" xr:uid="{4807AA58-2070-4A1C-8C64-36BFD741B8BD}"/>
+    <hyperlink ref="A36" location="GetSelectRoleByProjectID!A1" display="GetSelectRoleByProjectID" xr:uid="{4807AA58-2070-4A1C-8C64-36BFD741B8BD}"/>
     <hyperlink ref="A20" location="GetSubscriberByHouseID!A1" display="GetHouseSubscriber" xr:uid="{0DF13CAA-5532-42C4-A721-DA56CD1E8A7C}"/>
+    <hyperlink ref="A25" location="GetSelectionDetail!A1" display="GetSelectionDetail" xr:uid="{C410FAD8-2E26-454F-BAB5-3ADBE020891B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4270,43 +4398,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -4356,13 +4484,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -4425,43 +4553,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -4511,13 +4639,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
@@ -4578,43 +4706,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -4676,13 +4804,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -4709,13 +4837,13 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4934,43 +5062,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -5020,13 +5148,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -5059,13 +5187,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -5165,43 +5293,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -5266,13 +5394,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -5305,13 +5433,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5413,43 +5541,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -5514,13 +5642,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
@@ -5553,17 +5681,17 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
@@ -5827,43 +5955,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -5899,7 +6027,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -5943,13 +6071,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
@@ -5982,13 +6110,13 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -6241,43 +6369,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
@@ -6312,13 +6440,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -6351,13 +6479,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -6518,43 +6646,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>456</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
@@ -6589,13 +6717,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
@@ -6751,14 +6879,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>458</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E18" s="45">
         <v>43257.5</v>
@@ -6800,43 +6928,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>381</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -6901,13 +7029,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -6934,13 +7062,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -6959,14 +7087,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>249</v>
@@ -7002,7 +7130,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>235</v>
@@ -7014,13 +7142,13 @@
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -7143,13 +7271,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -7265,43 +7393,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -7351,13 +7479,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -7443,43 +7571,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
@@ -7529,13 +7657,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
@@ -7568,13 +7696,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -7735,43 +7863,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -7799,7 +7927,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="26">
         <v>10</v>
@@ -7836,13 +7964,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -7875,17 +8003,17 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
@@ -8037,10 +8165,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E19" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8048,50 +8176,50 @@
     <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -8126,13 +8254,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -8165,13 +8293,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -8230,7 +8358,7 @@
         <v>265</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>271</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -8245,7 +8373,7 @@
         <v>266</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -8260,7 +8388,7 @@
         <v>267</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -8275,21 +8403,36 @@
         <v>268</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>264</v>
+        <v>470</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>249</v>
       </c>
     </row>
@@ -8307,11 +8450,285 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D004814-8A08-4E00-AA9A-891D874FBE02}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{3AA5F0D8-72C0-41FA-BE59-2EEC65CD6CCC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -8329,43 +8746,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -8415,13 +8832,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -8442,25 +8859,25 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
+      <c r="A11" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -8674,7 +9091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -8694,43 +9111,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>313</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
@@ -8780,13 +9197,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
@@ -8807,36 +9224,36 @@
     </row>
     <row r="10" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="A11" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -8844,17 +9261,17 @@
     </row>
     <row r="13" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
@@ -8862,22 +9279,22 @@
         <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>466</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="A15" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -8911,17 +9328,17 @@
     </row>
     <row r="18" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -8943,11 +9360,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -8963,43 +9380,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
@@ -9020,7 +9437,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -9030,7 +9447,7 @@
         <v>169</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -9064,13 +9481,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
@@ -9091,36 +9508,36 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="A12" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -9128,17 +9545,17 @@
     </row>
     <row r="14" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
@@ -9146,22 +9563,22 @@
         <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
-        <v>466</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="A16" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -9195,17 +9612,17 @@
     </row>
     <row r="19" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -9227,7 +9644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -9247,43 +9664,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -9307,52 +9724,52 @@
         <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -9396,7 +9813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -9415,43 +9832,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -9472,14 +9889,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E6" s="28">
         <v>1</v>
@@ -9487,44 +9904,44 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>310</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>227</v>
@@ -9535,22 +9952,22 @@
         <v>204</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
@@ -9594,7 +10011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -9612,43 +10029,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
@@ -9669,7 +10086,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -9683,13 +10100,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
@@ -9710,66 +10127,66 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
+      <c r="A10" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>249</v>
@@ -9777,17 +10194,17 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -9802,229 +10219,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A8:E8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -10051,43 +10245,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -10168,17 +10362,17 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -10190,22 +10384,22 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E12" s="38" t="b">
         <v>0</v>
@@ -10213,27 +10407,27 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="E13" s="38" t="s">
-        <v>430</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -10285,6 +10479,229 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -10304,43 +10721,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -10361,7 +10778,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -10376,25 +10793,25 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -10421,54 +10838,54 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
+      <c r="A11" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>249</v>
@@ -10476,17 +10893,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -10507,7 +10924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -10527,43 +10944,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>354</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>356</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -10598,13 +11015,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
@@ -10628,7 +11045,7 @@
         <v>206</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -10638,51 +11055,51 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
-        <v>365</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
+      <c r="A13" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -10715,24 +11132,24 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
-        <v>366</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
+      <c r="A16" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>249</v>
@@ -10740,38 +11157,38 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="55" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
-        <v>373</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>249</v>
@@ -10779,14 +11196,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>104</v>
@@ -10813,7 +11230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -10831,43 +11248,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>388</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>390</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>389</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -10903,51 +11320,51 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
@@ -10974,13 +11391,13 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
-        <v>398</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
+      <c r="A13" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -10999,38 +11416,38 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
+      <c r="A16" s="55" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>249</v>
@@ -11038,27 +11455,27 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
-        <v>402</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="A19" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -11077,17 +11494,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -11110,7 +11527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C4B782-A22B-49BF-924A-1028C029D41F}">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -11130,43 +11547,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>451</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>449</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
@@ -11201,13 +11618,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
@@ -11228,51 +11645,51 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>398</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="A12" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -11291,38 +11708,38 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="A15" s="55" t="s">
+        <v>399</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>249</v>
@@ -11330,27 +11747,27 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
-        <v>402</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+      <c r="A18" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -11369,17 +11786,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -11401,7 +11818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -11421,43 +11838,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>408</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
@@ -11493,51 +11910,51 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
@@ -11564,13 +11981,13 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
-        <v>398</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
+      <c r="A13" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -11589,38 +12006,38 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
+      <c r="A16" s="55" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>249</v>
@@ -11628,27 +12045,27 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
-        <v>402</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="A19" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -11667,17 +12084,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -11699,7 +12116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -11719,43 +12136,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>416</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>422</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>417</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
@@ -11790,13 +12207,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
@@ -11817,25 +12234,25 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
-        <v>421</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
+      <c r="A10" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -11854,14 +12271,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>249</v>
@@ -11896,13 +12313,13 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -12061,43 +12478,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>434</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>436</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>435</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
@@ -12193,17 +12610,17 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -12215,22 +12632,22 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E13" s="40" t="b">
         <v>0</v>
@@ -12238,27 +12655,27 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E14" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="E14" s="40" t="s">
-        <v>430</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
@@ -12328,43 +12745,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>437</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>436</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
@@ -12400,27 +12817,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>430</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
@@ -12490,43 +12907,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -12576,13 +12993,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -12615,13 +13032,13 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -12700,17 +13117,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -12722,22 +13139,22 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E19" s="38" t="b">
         <v>0</v>
@@ -12745,17 +13162,17 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>429</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -12797,43 +13214,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -12868,13 +13285,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -12907,13 +13324,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -12992,17 +13409,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -13014,22 +13431,22 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E18" s="38" t="b">
         <v>0</v>
@@ -13037,17 +13454,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E19" s="38" t="s">
         <v>429</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -13089,43 +13506,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -13190,13 +13607,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -13229,13 +13646,13 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -13314,17 +13731,17 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -13336,22 +13753,22 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E20" s="38" t="b">
         <v>0</v>
@@ -13359,17 +13776,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>429</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -13410,43 +13827,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -13474,20 +13891,20 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
@@ -13520,17 +13937,17 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -13567,7 +13984,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E13" s="30"/>
     </row>

--- a/Doc/接口说明文档.xlsx
+++ b/Doc/接口说明文档.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HouseSelection\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DDAA1457-4EFC-4472-B73E-3BEA4BC4C1FE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="17" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="6" r:id="rId1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="504">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1944,24 +1943,33 @@
   <si>
     <t>认购人选房明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>认购人ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1970,7 +1978,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1978,7 +1986,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2080,7 +2088,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2231,6 +2239,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2258,7 +2269,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2719,14 +2730,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>237381</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8781</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>151431</xdr:rowOff>
     </xdr:to>
@@ -2751,8 +2762,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6438900" y="0"/>
-          <a:ext cx="5952381" cy="7752381"/>
+          <a:off x="6076950" y="0"/>
+          <a:ext cx="5266581" cy="8152431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3893,134 +3904,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="51"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="52"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="43" t="s">
         <v>438</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="6" t="s">
         <v>439</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="6" t="s">
         <v>59</v>
       </c>
@@ -4028,7 +4039,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="6" t="s">
         <v>65</v>
       </c>
@@ -4036,7 +4047,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="6" t="s">
         <v>443</v>
       </c>
@@ -4044,7 +4055,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="6" t="s">
         <v>74</v>
       </c>
@@ -4052,7 +4063,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="6" t="s">
         <v>114</v>
       </c>
@@ -4060,7 +4071,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="6" t="s">
         <v>445</v>
       </c>
@@ -4068,7 +4079,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="6" t="s">
         <v>444</v>
       </c>
@@ -4076,7 +4087,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
         <v>146</v>
       </c>
@@ -4084,7 +4095,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
         <v>171</v>
       </c>
@@ -4092,7 +4103,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="13.5" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>173</v>
       </c>
@@ -4100,7 +4111,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="13.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>460</v>
       </c>
@@ -4108,7 +4119,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="13.5" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>251</v>
       </c>
@@ -4116,7 +4127,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="13.5" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>280</v>
       </c>
@@ -4124,7 +4135,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="13.5" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>217</v>
       </c>
@@ -4132,7 +4143,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="13.5" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>253</v>
       </c>
@@ -4140,7 +4151,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="13.5" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>499</v>
       </c>
@@ -4148,7 +4159,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="13.5" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>274</v>
       </c>
@@ -4156,7 +4167,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="13.5" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>311</v>
       </c>
@@ -4164,7 +4175,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="13.5" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>315</v>
       </c>
@@ -4172,7 +4183,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="13.5" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>299</v>
       </c>
@@ -4180,7 +4191,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="13.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>316</v>
       </c>
@@ -4188,7 +4199,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="13.5" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>323</v>
       </c>
@@ -4196,7 +4207,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="13.5" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>349</v>
       </c>
@@ -4204,7 +4215,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="13.5" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>350</v>
       </c>
@@ -4212,7 +4223,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="13.5" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>442</v>
       </c>
@@ -4220,7 +4231,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="13.5" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>411</v>
       </c>
@@ -4228,7 +4239,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="13.5" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>446</v>
       </c>
@@ -4236,7 +4247,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="13.5" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>412</v>
       </c>
@@ -4244,7 +4255,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="13.5" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>414</v>
       </c>
@@ -4252,17 +4263,17 @@
         <v>422</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="13.5" customHeight="1">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="51"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="52"/>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>430</v>
       </c>
@@ -4270,7 +4281,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>431</v>
       </c>
@@ -4278,7 +4289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>432</v>
       </c>
@@ -4286,13 +4297,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="51" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="51"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="52"/>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -4300,7 +4311,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>999</v>
       </c>
@@ -4308,7 +4319,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>101</v>
       </c>
@@ -4316,7 +4327,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>102</v>
       </c>
@@ -4338,39 +4349,39 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" location="Token!A1" display="Token" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A6" location="AddProject!A1" display="AddProject" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A9" location="GetAllProjects!A1" display="GetAllProjects" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A10" location="GetProjectByID!A1" display="GetProjectByID" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A11" location="GetProjects!A1" display="GetProjects" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A13" location="CheckBackEndAccount!A1" display="CheckBackEndAccount" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A14" location="ImportHouseInfo!A1" display="ImportHouseInfo" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A15" location="GetAllHouseEstateInfo!A1" display="GetAllHouseEstateInfo" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A16" location="GetHouseEstates!A1" display="GetHouseEstates" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A17" location="GetAllHouseInfo!A1" display="GetAllHouseInfo" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A18" location="GetHouses!A1" display="GetHouses" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A19" location="GetHouseSubscriber!A1" display="GetHouseSubscriber" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A12" location="GetProjectGroup!A1" display="GetProjectGroup" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A22" location="GetAllSubscribers!A1" display="GetAllSubscribers" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A21" location="ImportSubscriber!A1" display="ImportSubscriber" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A23" location="GetSubscribers!A1" display="GetSubscribers" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A24" location="GetSubscriberSelectionHistory!A1" display="GetSubscriberSelectionHistory" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A26" location="GetSelectHouseInfo!A1" display="GetSelectHouseInfo" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A27" location="GetAllFrontEndAccount!A1" display="GetAllFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A28" location="GetFrontEndAccount!A1" display="GetFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A29" location="AddFrontEndAccount!A1" display="AddFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A30" location="EditFrontEndAccount!A1" display="EditFrontEndAccount" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A31" location="GetSelectTimePeriod!A1" display="GetSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A32" location="AddSelectTimePeriod!A1" display="AddSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A33" location="EditSelectTimePeriod!A1" display="EditSelectTimePeriod" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A34" location="GetProjectRoleBaseInfo!A1" display="GetProjectRoleBaseInfo" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A35" location="AddSelectRole!A1" display="AddSelectRole" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A37" location="EditSelectRole!A1" display="EditSelectRole" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A8" location="CloseProject!A1" display="CloseProject" xr:uid="{CB4451A7-D33F-44CE-BAE1-FEF29547D356}"/>
-    <hyperlink ref="A7" location="EditProject!A1" display="EditProject" xr:uid="{2B0CAF39-66CA-4158-876D-DEFF6B8AEAFB}"/>
-    <hyperlink ref="A36" location="GetSelectRoleByProjectID!A1" display="GetSelectRoleByProjectID" xr:uid="{4807AA58-2070-4A1C-8C64-36BFD741B8BD}"/>
-    <hyperlink ref="A20" location="GetSubscriberByHouseID!A1" display="GetHouseSubscriber" xr:uid="{0DF13CAA-5532-42C4-A721-DA56CD1E8A7C}"/>
-    <hyperlink ref="A25" location="GetSelectionDetail!A1" display="GetSelectionDetail" xr:uid="{C410FAD8-2E26-454F-BAB5-3ADBE020891B}"/>
+    <hyperlink ref="A5" location="Token!A1" display="Token"/>
+    <hyperlink ref="A6" location="AddProject!A1" display="AddProject"/>
+    <hyperlink ref="A9" location="GetAllProjects!A1" display="GetAllProjects"/>
+    <hyperlink ref="A10" location="GetProjectByID!A1" display="GetProjectByID"/>
+    <hyperlink ref="A11" location="GetProjects!A1" display="GetProjects"/>
+    <hyperlink ref="A13" location="CheckBackEndAccount!A1" display="CheckBackEndAccount"/>
+    <hyperlink ref="A14" location="ImportHouseInfo!A1" display="ImportHouseInfo"/>
+    <hyperlink ref="A15" location="GetAllHouseEstateInfo!A1" display="GetAllHouseEstateInfo"/>
+    <hyperlink ref="A16" location="GetHouseEstates!A1" display="GetHouseEstates"/>
+    <hyperlink ref="A17" location="GetAllHouseInfo!A1" display="GetAllHouseInfo"/>
+    <hyperlink ref="A18" location="GetHouses!A1" display="GetHouses"/>
+    <hyperlink ref="A19" location="GetHouseSubscriber!A1" display="GetHouseSubscriber"/>
+    <hyperlink ref="A12" location="GetProjectGroup!A1" display="GetProjectGroup"/>
+    <hyperlink ref="A22" location="GetAllSubscribers!A1" display="GetAllSubscribers"/>
+    <hyperlink ref="A21" location="ImportSubscriber!A1" display="ImportSubscriber"/>
+    <hyperlink ref="A23" location="GetSubscribers!A1" display="GetSubscribers"/>
+    <hyperlink ref="A24" location="GetSubscriberSelectionHistory!A1" display="GetSubscriberSelectionHistory"/>
+    <hyperlink ref="A26" location="GetSelectHouseInfo!A1" display="GetSelectHouseInfo"/>
+    <hyperlink ref="A27" location="GetAllFrontEndAccount!A1" display="GetAllFrontEndAccount"/>
+    <hyperlink ref="A28" location="GetFrontEndAccount!A1" display="GetFrontEndAccount"/>
+    <hyperlink ref="A29" location="AddFrontEndAccount!A1" display="AddFrontEndAccount"/>
+    <hyperlink ref="A30" location="EditFrontEndAccount!A1" display="EditFrontEndAccount"/>
+    <hyperlink ref="A31" location="GetSelectTimePeriod!A1" display="GetSelectTimePeriod"/>
+    <hyperlink ref="A32" location="AddSelectTimePeriod!A1" display="AddSelectTimePeriod"/>
+    <hyperlink ref="A33" location="EditSelectTimePeriod!A1" display="EditSelectTimePeriod"/>
+    <hyperlink ref="A34" location="GetProjectRoleBaseInfo!A1" display="GetProjectRoleBaseInfo"/>
+    <hyperlink ref="A35" location="AddSelectRole!A1" display="AddSelectRole"/>
+    <hyperlink ref="A37" location="EditSelectRole!A1" display="EditSelectRole"/>
+    <hyperlink ref="A8" location="CloseProject!A1" display="CloseProject"/>
+    <hyperlink ref="A7" location="EditProject!A1" display="EditProject"/>
+    <hyperlink ref="A36" location="GetSelectRoleByProjectID!A1" display="GetSelectRoleByProjectID"/>
+    <hyperlink ref="A20" location="GetSubscriberByHouseID!A1" display="GetHouseSubscriber"/>
+    <hyperlink ref="A25" location="GetSelectionDetail!A1" display="GetSelectionDetail"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4379,64 +4390,64 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -4453,7 +4464,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -4468,7 +4479,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -4483,16 +4494,16 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -4509,7 +4520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4526,7 +4537,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4535,63 +4546,63 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
@@ -4608,7 +4619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -4623,7 +4634,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -4638,16 +4649,16 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="23" t="s">
         <v>4</v>
       </c>
@@ -4664,7 +4675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4681,7 +4692,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -4689,62 +4700,62 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -4761,7 +4772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
@@ -4776,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>123</v>
       </c>
@@ -4791,7 +4802,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -4803,16 +4814,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -4829,23 +4840,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
@@ -4860,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
@@ -4875,7 +4886,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -4890,7 +4901,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>101</v>
       </c>
@@ -4905,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
@@ -4920,7 +4931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
@@ -4935,7 +4946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
@@ -4950,7 +4961,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
@@ -4965,7 +4976,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>119</v>
       </c>
@@ -4980,7 +4991,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
@@ -4995,7 +5006,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>121</v>
       </c>
@@ -5010,7 +5021,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>122</v>
       </c>
@@ -5036,7 +5047,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5045,62 +5056,62 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -5117,7 +5128,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -5132,7 +5143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -5147,16 +5158,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -5173,7 +5184,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>131</v>
       </c>
@@ -5186,16 +5197,16 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>133</v>
       </c>
@@ -5210,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>134</v>
       </c>
@@ -5225,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>135</v>
       </c>
@@ -5240,7 +5251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>136</v>
       </c>
@@ -5266,7 +5277,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5275,63 +5286,63 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -5348,7 +5359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -5363,7 +5374,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -5378,7 +5389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
@@ -5393,16 +5404,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
@@ -5419,7 +5430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
@@ -5432,16 +5443,16 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>133</v>
       </c>
@@ -5456,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
@@ -5471,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
@@ -5486,7 +5497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>136</v>
       </c>
@@ -5512,7 +5523,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5521,65 +5532,65 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E27" sqref="A13:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -5596,7 +5607,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>149</v>
       </c>
@@ -5611,7 +5622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -5626,7 +5637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
@@ -5641,16 +5652,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
@@ -5667,7 +5678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>150</v>
       </c>
@@ -5680,16 +5691,16 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>452</v>
       </c>
@@ -5704,7 +5715,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -5719,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -5734,7 +5745,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>100</v>
       </c>
@@ -5749,7 +5760,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
@@ -5764,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
@@ -5779,7 +5790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -5794,7 +5805,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>117</v>
       </c>
@@ -5809,7 +5820,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>118</v>
       </c>
@@ -5824,7 +5835,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>119</v>
       </c>
@@ -5839,7 +5850,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>120</v>
       </c>
@@ -5854,7 +5865,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>121</v>
       </c>
@@ -5869,7 +5880,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>122</v>
       </c>
@@ -5884,7 +5895,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="1" t="s">
         <v>152</v>
       </c>
@@ -5901,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>153</v>
       </c>
@@ -5927,7 +5938,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5936,64 +5947,64 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -6010,7 +6021,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>149</v>
       </c>
@@ -6025,7 +6036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>453</v>
       </c>
@@ -6040,7 +6051,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -6055,7 +6066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -6070,16 +6081,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
@@ -6096,7 +6107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>150</v>
       </c>
@@ -6109,16 +6120,16 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -6133,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -6148,7 +6159,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>100</v>
       </c>
@@ -6163,7 +6174,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
@@ -6178,7 +6189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
@@ -6193,7 +6204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -6208,7 +6219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>117</v>
       </c>
@@ -6223,7 +6234,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>118</v>
       </c>
@@ -6238,7 +6249,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>119</v>
       </c>
@@ -6253,7 +6264,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>120</v>
       </c>
@@ -6268,7 +6279,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>121</v>
       </c>
@@ -6283,7 +6294,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>122</v>
       </c>
@@ -6298,7 +6309,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="1" t="s">
         <v>152</v>
       </c>
@@ -6315,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>153</v>
       </c>
@@ -6341,7 +6352,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -6350,64 +6361,64 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    